--- a/chyichin/document/齐秦专辑详细.xlsx
+++ b/chyichin/document/齐秦专辑详细.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\齐秦\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web\MyGithub\Database\chyichin\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F582501F-8472-48A0-A514-06958B1318AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB388670-3BD4-4380-9C7F-650642A063AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="6924" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="齐秦专辑大全" sheetId="3" r:id="rId1"/>
@@ -601,9 +601,6 @@
     <t>16.回来</t>
   </si>
   <si>
-    <t>抒情的摇滚   怀念狼</t>
-  </si>
-  <si>
     <t>2001.01.01</t>
   </si>
   <si>
@@ -680,9 +677,6 @@
   </si>
   <si>
     <t>12.呼唤(Additional version)</t>
-  </si>
-  <si>
-    <t>2003     北京春分演唱会</t>
   </si>
   <si>
     <t>2003.01.01</t>
@@ -2192,6 +2186,14 @@
   </si>
   <si>
     <t>柒年▪   七个音乐故事</t>
+  </si>
+  <si>
+    <t>抒情的摇滚    怀念狼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003      北京春分演唱会</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2847,12 +2849,168 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2865,6 +3023,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2876,192 +3064,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3500,335 +3502,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E544" sqref="E544"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.765625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.4609375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" style="24" customWidth="1"/>
     <col min="5" max="5" width="33" style="24" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="24"/>
-    <col min="10" max="10" width="7.21875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="31.77734375" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="24"/>
+    <col min="6" max="6" width="7.23046875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.4609375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="22.23046875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="8.765625" style="24"/>
+    <col min="10" max="10" width="7.23046875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="12.4609375" style="24" customWidth="1"/>
+    <col min="12" max="12" width="31.765625" style="24" customWidth="1"/>
+    <col min="13" max="16384" width="8.765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="119" t="s">
+    <row r="2" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B3" s="51"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27" t="s">
+    </row>
+    <row r="4" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="28" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B3" s="120"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="28" t="s">
+    <row r="5" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="28" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B4" s="120"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="28" t="s">
+    <row r="6" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="28" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B5" s="120"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="28" t="s">
+    <row r="7" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B7" s="51"/>
+      <c r="C7" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B6" s="120"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="28" t="s">
+    <row r="8" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B8" s="51"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="28" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="120"/>
-      <c r="C7" s="76" t="s">
+    <row r="9" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="28" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B11" s="52"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="29" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B13" s="53" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B14" s="54"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="31" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B15" s="54"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="31" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B16" s="54"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B17" s="54"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B18" s="54"/>
+      <c r="C18" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="120"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="28" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="120"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="28" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="120"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="28" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="121"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="29" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="114" t="s">
-        <v>584</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="31" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="31" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="115"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="31" t="s">
+      <c r="D18" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="115"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="31" t="s">
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B19" s="54"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="I17" s="33"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="115"/>
-      <c r="C18" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="31" t="s">
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B20" s="54"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="115"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="31" t="s">
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B21" s="54"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="31" t="s">
         <v>591</v>
       </c>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B20" s="115"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="31" t="s">
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B21" s="115"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="31" t="s">
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B24" s="56" t="s">
         <v>593</v>
-      </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="116"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="35" t="s">
-        <v>594</v>
-      </c>
-      <c r="I22" s="34"/>
-    </row>
-    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I23" s="34"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="86" t="s">
-        <v>595</v>
       </c>
       <c r="C24" s="92" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I24" s="34"/>
     </row>
-    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
+    <row r="25" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B25" s="57"/>
       <c r="C25" s="93"/>
       <c r="D25" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H25" s="36"/>
       <c r="I25" s="34"/>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
+    <row r="26" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B26" s="57"/>
       <c r="C26" s="93"/>
       <c r="D26" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I26" s="34"/>
     </row>
-    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="87"/>
+    <row r="27" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B27" s="57"/>
       <c r="C27" s="93"/>
       <c r="D27" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I27" s="34"/>
     </row>
-    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="87"/>
+    <row r="28" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B28" s="57"/>
       <c r="C28" s="93"/>
       <c r="D28" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
+    <row r="29" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B29" s="57"/>
       <c r="C29" s="93"/>
       <c r="D29" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B30" s="87"/>
+    <row r="30" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B30" s="57"/>
       <c r="C30" s="94" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I30" s="38"/>
     </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="87"/>
+    <row r="31" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B31" s="57"/>
       <c r="C31" s="94"/>
       <c r="D31" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I31" s="38"/>
     </row>
-    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B32" s="87"/>
+    <row r="32" spans="2:10" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B32" s="57"/>
       <c r="C32" s="94"/>
       <c r="D32" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I32" s="38"/>
     </row>
-    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="87"/>
+    <row r="33" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B33" s="57"/>
       <c r="C33" s="94"/>
       <c r="D33" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I33" s="38"/>
     </row>
-    <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B34" s="87"/>
+    <row r="34" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B34" s="57"/>
       <c r="C34" s="94"/>
       <c r="D34" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I34" s="38"/>
     </row>
-    <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="88"/>
+    <row r="35" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B35" s="58"/>
       <c r="C35" s="95"/>
       <c r="D35" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B37" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="C37" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>607</v>
       </c>
-      <c r="I35" s="38"/>
-    </row>
-    <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B37" s="119" t="s">
+      <c r="I37" s="38"/>
+    </row>
+    <row r="38" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B38" s="51"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="40" t="s">
         <v>608</v>
-      </c>
-      <c r="C37" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>609</v>
-      </c>
-      <c r="I37" s="38"/>
-    </row>
-    <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B38" s="120"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="40" t="s">
-        <v>610</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
     </row>
-    <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B39" s="120"/>
-      <c r="C39" s="79"/>
+    <row r="39" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B39" s="51"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="40" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="37"/>
     </row>
-    <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B40" s="120"/>
-      <c r="C40" s="79"/>
+    <row r="40" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B40" s="51"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="40" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="36"/>
@@ -3837,11 +3839,11 @@
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
     </row>
-    <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B41" s="120"/>
-      <c r="C41" s="79"/>
+    <row r="41" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B41" s="51"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="40" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -3850,13 +3852,13 @@
       <c r="K41" s="37"/>
       <c r="L41" s="37"/>
     </row>
-    <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B42" s="120"/>
-      <c r="C42" s="76" t="s">
+    <row r="42" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B42" s="51"/>
+      <c r="C42" s="90" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -3865,690 +3867,690 @@
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
     </row>
-    <row r="43" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B43" s="120"/>
-      <c r="C43" s="76"/>
+    <row r="43" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B43" s="51"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="40" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B44" s="120"/>
-      <c r="C44" s="76"/>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B44" s="51"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B45" s="120"/>
-      <c r="C45" s="76"/>
+    <row r="45" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B45" s="51"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="40" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B46" s="52"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="41" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B48" s="53" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B46" s="121"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="41" t="s">
+      <c r="C48" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+    <row r="49" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B49" s="54"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B50" s="54"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C48" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
+    </row>
+    <row r="51" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B51" s="54"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="115"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="2" t="s">
+    <row r="52" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B52" s="54"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="2" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B51" s="115"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="2" t="s">
+    <row r="53" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B53" s="54"/>
+      <c r="C53" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B54" s="54"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B52" s="115"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="2" t="s">
+    <row r="55" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B55" s="54"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B53" s="115"/>
-      <c r="C53" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B54" s="115"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="2" t="s">
+    <row r="56" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B56" s="54"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B55" s="115"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="2" t="s">
+    <row r="57" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B57" s="55"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B59" s="59" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B56" s="115"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="2" t="s">
+      <c r="C59" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B57" s="116"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B59" s="89" t="s">
+    <row r="60" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B60" s="60"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B61" s="60"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B62" s="60"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B63" s="60"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C59" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="4" t="s">
+    </row>
+    <row r="64" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B64" s="60"/>
+      <c r="C64" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B60" s="90"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B61" s="90"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B62" s="90"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B63" s="90"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="5" t="s">
+    <row r="65" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B65" s="60"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B66" s="60"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="5" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B64" s="90"/>
-      <c r="C64" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="D64" s="5" t="s">
+    <row r="67" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B67" s="60"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="5" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B65" s="90"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B66" s="90"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="5" t="s">
+    <row r="68" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B68" s="60"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B67" s="90"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="5" t="s">
+    <row r="69" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B69" s="61"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B68" s="90"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="5" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B69" s="91"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B71" s="83" t="s">
-        <v>469</v>
+    <row r="71" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B71" s="62" t="s">
+        <v>467</v>
       </c>
       <c r="C71" s="92" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B72" s="84"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B72" s="63"/>
       <c r="C72" s="93"/>
       <c r="D72" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B73" s="84"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B73" s="63"/>
       <c r="C73" s="93"/>
       <c r="D73" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B74" s="84"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B74" s="63"/>
       <c r="C74" s="93"/>
       <c r="D74" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B75" s="84"/>
+    <row r="75" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B75" s="63"/>
       <c r="C75" s="93"/>
       <c r="D75" s="5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B76" s="84"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B76" s="63"/>
       <c r="C76" s="93"/>
       <c r="D76" s="5" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B77" s="84"/>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B77" s="63"/>
       <c r="C77" s="94" t="s">
         <v>68</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B78" s="84"/>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B78" s="63"/>
       <c r="C78" s="94"/>
       <c r="D78" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B79" s="84"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B79" s="63"/>
       <c r="C79" s="94"/>
       <c r="D79" s="5" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B80" s="84"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B80" s="63"/>
       <c r="C80" s="94"/>
       <c r="D80" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B81" s="84"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B81" s="63"/>
       <c r="C81" s="94"/>
       <c r="D81" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B82" s="85"/>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B82" s="64"/>
       <c r="C82" s="95"/>
       <c r="D82" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B84" s="65" t="s">
+        <v>639</v>
+      </c>
+      <c r="C84" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B84" s="108" t="s">
+    <row r="85" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B85" s="66"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C84" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="1" t="s">
+    </row>
+    <row r="86" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B86" s="66"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B85" s="109"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="2" t="s">
+    <row r="87" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B87" s="66"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B86" s="109"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="2" t="s">
+    <row r="88" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B88" s="66"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="2" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B87" s="109"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="2" t="s">
+    <row r="89" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B89" s="66"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B88" s="109"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="2" t="s">
+    <row r="90" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B90" s="66"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B89" s="109"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="2" t="s">
+    <row r="91" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B91" s="66"/>
+      <c r="C91" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B90" s="109"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="2" t="s">
+    <row r="92" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B92" s="66"/>
+      <c r="C92" s="98"/>
+      <c r="D92" s="2" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B91" s="109"/>
-      <c r="C91" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="2" t="s">
+    <row r="93" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B93" s="66"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="2" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B92" s="109"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="2" t="s">
+    <row r="94" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B94" s="66"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B93" s="109"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="2" t="s">
+    <row r="95" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B95" s="66"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="2" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B94" s="109"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="2" t="s">
+    <row r="96" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B96" s="66"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="2" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B95" s="109"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="2" t="s">
+    <row r="97" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B97" s="67"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B96" s="109"/>
-      <c r="C96" s="50"/>
-      <c r="D96" s="2" t="s">
+    <row r="99" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B99" s="62" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B97" s="110"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="3" t="s">
+      <c r="C99" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B99" s="83" t="s">
+    <row r="100" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B100" s="63"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="C99" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="4" t="s">
+    </row>
+    <row r="101" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B101" s="63"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B102" s="63"/>
+      <c r="C102" s="89"/>
+      <c r="D102" s="5" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B100" s="84"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="5" t="s">
+    <row r="103" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B103" s="63"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B104" s="63"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B101" s="84"/>
-      <c r="C101" s="79"/>
-      <c r="D101" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B102" s="84"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="5" t="s">
+    <row r="105" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B105" s="63"/>
+      <c r="C105" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B103" s="84"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="5" t="s">
+    <row r="106" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B106" s="63"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B107" s="63"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B108" s="63"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B109" s="63"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B110" s="64"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B112" s="68" t="s">
+        <v>663</v>
+      </c>
+      <c r="C112" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B113" s="69"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B114" s="69"/>
+      <c r="C114" s="101"/>
+      <c r="D114" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B115" s="69"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B116" s="69"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B117" s="69"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B118" s="69"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B104" s="84"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B105" s="84"/>
-      <c r="C105" s="76" t="s">
+    <row r="119" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B119" s="69"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B120" s="69"/>
+      <c r="C120" s="102" t="s">
+        <v>667</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B121" s="69"/>
+      <c r="C121" s="102"/>
+      <c r="D121" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B122" s="69"/>
+      <c r="C122" s="102"/>
+      <c r="D122" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B123" s="69"/>
+      <c r="C123" s="102"/>
+      <c r="D123" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B124" s="69"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B125" s="69"/>
+      <c r="C125" s="102"/>
+      <c r="D125" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B126" s="69"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B127" s="70"/>
+      <c r="C127" s="103"/>
+      <c r="D127" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B129" s="62" t="s">
+        <v>669</v>
+      </c>
+      <c r="C129" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B130" s="63"/>
+      <c r="C130" s="89"/>
+      <c r="D130" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B131" s="63"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B132" s="63"/>
+      <c r="C132" s="89"/>
+      <c r="D132" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B133" s="63"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B134" s="63"/>
+      <c r="C134" s="89"/>
+      <c r="D134" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B135" s="63"/>
+      <c r="C135" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B106" s="84"/>
-      <c r="C106" s="76"/>
-      <c r="D106" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B107" s="84"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B108" s="84"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="5" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B109" s="84"/>
-      <c r="C109" s="76"/>
-      <c r="D109" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B110" s="85"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="6" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B112" s="80" t="s">
-        <v>665</v>
-      </c>
-      <c r="C112" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B113" s="81"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B114" s="81"/>
-      <c r="C114" s="61"/>
-      <c r="D114" s="5" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B115" s="81"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B116" s="81"/>
-      <c r="C116" s="61"/>
-      <c r="D116" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B117" s="81"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B118" s="81"/>
-      <c r="C118" s="61"/>
-      <c r="D118" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B119" s="81"/>
-      <c r="C119" s="61"/>
-      <c r="D119" s="5" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B120" s="81"/>
-      <c r="C120" s="62" t="s">
-        <v>669</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B121" s="81"/>
-      <c r="C121" s="62"/>
-      <c r="D121" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B122" s="81"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B123" s="81"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="5" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B124" s="81"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B125" s="81"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B126" s="81"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B127" s="82"/>
-      <c r="C127" s="63"/>
-      <c r="D127" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B129" s="83" t="s">
-        <v>671</v>
-      </c>
-      <c r="C129" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B130" s="84"/>
-      <c r="C130" s="79"/>
-      <c r="D130" s="5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B131" s="84"/>
-      <c r="C131" s="79"/>
-      <c r="D131" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B132" s="84"/>
-      <c r="C132" s="79"/>
-      <c r="D132" s="5" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B133" s="84"/>
-      <c r="C133" s="79"/>
-      <c r="D133" s="5" t="s">
+      <c r="D135" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B134" s="84"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="5" t="s">
+    <row r="136" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B136" s="63"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B135" s="84"/>
-      <c r="C135" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D135" s="5" t="s">
+    <row r="137" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B137" s="63"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B136" s="84"/>
-      <c r="C136" s="76"/>
-      <c r="D136" s="5" t="s">
+    <row r="138" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B138" s="63"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B137" s="84"/>
-      <c r="C137" s="76"/>
-      <c r="D137" s="5" t="s">
+    <row r="139" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B139" s="63"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="5" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B138" s="84"/>
-      <c r="C138" s="76"/>
-      <c r="D138" s="5" t="s">
+    <row r="140" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B140" s="64"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="6" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B139" s="84"/>
-      <c r="C139" s="76"/>
-      <c r="D139" s="5" t="s">
+    <row r="142" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B142" s="65" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="140" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B140" s="85"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B142" s="108" t="s">
-        <v>684</v>
-      </c>
-      <c r="C142" s="64" t="s">
+      <c r="C142" s="96" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="42" t="s">
@@ -4558,2294 +4560,2294 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B143" s="117"/>
-      <c r="C143" s="65"/>
+    <row r="143" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B143" s="71"/>
+      <c r="C143" s="97"/>
       <c r="D143" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B144" s="117"/>
-      <c r="C144" s="65"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B144" s="71"/>
+      <c r="C144" s="97"/>
       <c r="D144" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B145" s="117"/>
-      <c r="C145" s="65"/>
+    <row r="145" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B145" s="71"/>
+      <c r="C145" s="97"/>
       <c r="D145" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B146" s="117"/>
-      <c r="C146" s="65"/>
+    <row r="146" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B146" s="71"/>
+      <c r="C146" s="97"/>
       <c r="D146" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B147" s="71"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E147" s="5" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B147" s="117"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="11" t="s">
+    <row r="148" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B148" s="71"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E148" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B149" s="71"/>
+      <c r="C149" s="98" t="s">
+        <v>351</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B148" s="117"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="11" t="s">
+      <c r="E149" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B149" s="117"/>
-      <c r="C149" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="D149" s="11" t="s">
+    </row>
+    <row r="150" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B150" s="71"/>
+      <c r="C150" s="98"/>
+      <c r="D150" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="E149" s="5" t="s">
+    </row>
+    <row r="151" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B151" s="71"/>
+      <c r="C151" s="98"/>
+      <c r="D151" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E151" s="5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B150" s="117"/>
-      <c r="C150" s="50"/>
-      <c r="D150" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="E150" s="5" t="s">
+    <row r="152" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B152" s="71"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="E152" s="5" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B151" s="117"/>
-      <c r="C151" s="50"/>
-      <c r="D151" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E151" s="5" t="s">
+    <row r="153" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B153" s="71"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="11" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B152" s="117"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E152" s="5" t="s">
+      <c r="E153" s="5" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B153" s="117"/>
-      <c r="C153" s="50"/>
-      <c r="D153" s="11" t="s">
+    <row r="154" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B154" s="71"/>
+      <c r="C154" s="98"/>
+      <c r="D154" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E154" s="5" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B154" s="117"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="11" t="s">
+    <row r="155" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B155" s="71"/>
+      <c r="C155" s="98"/>
+      <c r="D155" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B156" s="72"/>
+      <c r="C156" s="99"/>
+      <c r="D156" s="44" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B155" s="117"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B156" s="118"/>
-      <c r="C156" s="51"/>
-      <c r="D156" s="44" t="s">
-        <v>700</v>
-      </c>
       <c r="E156" s="6"/>
     </row>
-    <row r="158" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B158" s="86" t="s">
+    <row r="158" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B158" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="78" t="s">
+      <c r="C158" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B159" s="87"/>
-      <c r="C159" s="79"/>
+    <row r="159" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B159" s="57"/>
+      <c r="C159" s="89"/>
       <c r="D159" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B160" s="87"/>
-      <c r="C160" s="79"/>
+    <row r="160" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B160" s="57"/>
+      <c r="C160" s="89"/>
       <c r="D160" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B161" s="87"/>
-      <c r="C161" s="79"/>
+    <row r="161" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B161" s="57"/>
+      <c r="C161" s="89"/>
       <c r="D161" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B162" s="87"/>
-      <c r="C162" s="79"/>
+    <row r="162" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B162" s="57"/>
+      <c r="C162" s="89"/>
       <c r="D162" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B163" s="87"/>
-      <c r="C163" s="79"/>
+    <row r="163" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B163" s="57"/>
+      <c r="C163" s="89"/>
       <c r="D163" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B164" s="87"/>
-      <c r="C164" s="76" t="s">
+    <row r="164" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B164" s="57"/>
+      <c r="C164" s="90" t="s">
         <v>68</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B165" s="87"/>
-      <c r="C165" s="76"/>
+    <row r="165" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B165" s="57"/>
+      <c r="C165" s="90"/>
       <c r="D165" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B166" s="87"/>
-      <c r="C166" s="76"/>
+    <row r="166" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B166" s="57"/>
+      <c r="C166" s="90"/>
       <c r="D166" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B167" s="87"/>
-      <c r="C167" s="76"/>
+    <row r="167" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B167" s="57"/>
+      <c r="C167" s="90"/>
       <c r="D167" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B168" s="87"/>
-      <c r="C168" s="76"/>
+    <row r="168" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B168" s="57"/>
+      <c r="C168" s="90"/>
       <c r="D168" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B169" s="88"/>
-      <c r="C169" s="77"/>
+    <row r="169" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B169" s="58"/>
+      <c r="C169" s="91"/>
       <c r="D169" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B171" s="86" t="s">
+    <row r="171" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B171" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C171" s="78" t="s">
+      <c r="C171" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B172" s="87"/>
-      <c r="C172" s="79"/>
+    <row r="172" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B172" s="57"/>
+      <c r="C172" s="89"/>
       <c r="D172" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B173" s="87"/>
-      <c r="C173" s="79"/>
+    <row r="173" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B173" s="57"/>
+      <c r="C173" s="89"/>
       <c r="D173" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B174" s="87"/>
-      <c r="C174" s="79"/>
+    <row r="174" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B174" s="57"/>
+      <c r="C174" s="89"/>
       <c r="D174" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B175" s="87"/>
-      <c r="C175" s="79"/>
+    <row r="175" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B175" s="57"/>
+      <c r="C175" s="89"/>
       <c r="D175" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B176" s="87"/>
-      <c r="C176" s="79"/>
+    <row r="176" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B176" s="57"/>
+      <c r="C176" s="89"/>
       <c r="D176" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B177" s="87"/>
-      <c r="C177" s="76" t="s">
+    <row r="177" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B177" s="57"/>
+      <c r="C177" s="90" t="s">
         <v>68</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B178" s="87"/>
-      <c r="C178" s="76"/>
+    <row r="178" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B178" s="57"/>
+      <c r="C178" s="90"/>
       <c r="D178" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B179" s="87"/>
-      <c r="C179" s="76"/>
+    <row r="179" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B179" s="57"/>
+      <c r="C179" s="90"/>
       <c r="D179" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B180" s="87"/>
-      <c r="C180" s="76"/>
+    <row r="180" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B180" s="57"/>
+      <c r="C180" s="90"/>
       <c r="D180" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B181" s="87"/>
-      <c r="C181" s="76"/>
+    <row r="181" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B181" s="57"/>
+      <c r="C181" s="90"/>
       <c r="D181" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B182" s="88"/>
-      <c r="C182" s="77"/>
+    <row r="182" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B182" s="58"/>
+      <c r="C182" s="91"/>
       <c r="D182" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B184" s="114" t="s">
+    <row r="184" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B184" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C184" s="52" t="s">
+      <c r="C184" s="104" t="s">
         <v>40</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B185" s="115"/>
-      <c r="C185" s="53"/>
+    <row r="185" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B185" s="54"/>
+      <c r="C185" s="105"/>
       <c r="D185" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B186" s="115"/>
-      <c r="C186" s="53"/>
+    <row r="186" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B186" s="54"/>
+      <c r="C186" s="105"/>
       <c r="D186" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B187" s="115"/>
-      <c r="C187" s="53"/>
+    <row r="187" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B187" s="54"/>
+      <c r="C187" s="105"/>
       <c r="D187" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B188" s="115"/>
-      <c r="C188" s="53"/>
+    <row r="188" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B188" s="54"/>
+      <c r="C188" s="105"/>
       <c r="D188" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B189" s="115"/>
-      <c r="C189" s="54" t="s">
+    <row r="189" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B189" s="54"/>
+      <c r="C189" s="106" t="s">
         <v>46</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B190" s="115"/>
-      <c r="C190" s="54"/>
+    <row r="190" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B190" s="54"/>
+      <c r="C190" s="106"/>
       <c r="D190" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B191" s="115"/>
-      <c r="C191" s="54"/>
+    <row r="191" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B191" s="54"/>
+      <c r="C191" s="106"/>
       <c r="D191" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B192" s="115"/>
-      <c r="C192" s="54"/>
+    <row r="192" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B192" s="54"/>
+      <c r="C192" s="106"/>
       <c r="D192" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B193" s="116"/>
-      <c r="C193" s="55"/>
+    <row r="193" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B193" s="55"/>
+      <c r="C193" s="107"/>
       <c r="D193" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B195" s="86" t="s">
+    <row r="194" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="195" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B195" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C195" s="78" t="s">
+      <c r="C195" s="88" t="s">
         <v>53</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B196" s="87"/>
-      <c r="C196" s="79"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B196" s="57"/>
+      <c r="C196" s="89"/>
       <c r="D196" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="197" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B197" s="87"/>
-      <c r="C197" s="79"/>
+    <row r="197" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B197" s="57"/>
+      <c r="C197" s="89"/>
       <c r="D197" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B198" s="87"/>
-      <c r="C198" s="79"/>
+    <row r="198" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B198" s="57"/>
+      <c r="C198" s="89"/>
       <c r="D198" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B199" s="87"/>
-      <c r="C199" s="79"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B199" s="57"/>
+      <c r="C199" s="89"/>
       <c r="D199" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B200" s="87"/>
-      <c r="C200" s="79"/>
+    <row r="200" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B200" s="57"/>
+      <c r="C200" s="89"/>
       <c r="D200" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B201" s="57"/>
+      <c r="C201" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B202" s="57"/>
+      <c r="C202" s="90"/>
+      <c r="D202" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="201" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B201" s="87"/>
-      <c r="C201" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D201" s="2" t="s">
+    <row r="203" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B203" s="57"/>
+      <c r="C203" s="90"/>
+      <c r="D203" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="202" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B202" s="87"/>
-      <c r="C202" s="76"/>
-      <c r="D202" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B203" s="87"/>
-      <c r="C203" s="76"/>
-      <c r="D203" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B204" s="87"/>
-      <c r="C204" s="76"/>
+    <row r="204" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B204" s="57"/>
+      <c r="C204" s="90"/>
       <c r="D204" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B205" s="87"/>
-      <c r="C205" s="76"/>
+    <row r="205" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B205" s="57"/>
+      <c r="C205" s="90"/>
       <c r="D205" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="88"/>
-      <c r="C206" s="77"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B206" s="58"/>
+      <c r="C206" s="91"/>
       <c r="D206" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B208" s="83" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B208" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C208" s="52" t="s">
+      <c r="C208" s="104" t="s">
         <v>13</v>
       </c>
       <c r="D208" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B209" s="63"/>
+      <c r="C209" s="105"/>
+      <c r="D209" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B210" s="63"/>
+      <c r="C210" s="105"/>
+      <c r="D210" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B211" s="63"/>
+      <c r="C211" s="105"/>
+      <c r="D211" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B209" s="84"/>
-      <c r="C209" s="53"/>
-      <c r="D209" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B210" s="84"/>
-      <c r="C210" s="53"/>
-      <c r="D210" s="2" t="s">
+    <row r="212" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B212" s="63"/>
+      <c r="C212" s="105"/>
+      <c r="D212" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B211" s="84"/>
-      <c r="C211" s="53"/>
-      <c r="D211" s="2" t="s">
+    <row r="213" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B213" s="63"/>
+      <c r="C213" s="105"/>
+      <c r="D213" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B212" s="84"/>
-      <c r="C212" s="53"/>
-      <c r="D212" s="2" t="s">
+    <row r="214" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B214" s="63"/>
+      <c r="C214" s="105"/>
+      <c r="D214" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B213" s="84"/>
-      <c r="C213" s="53"/>
-      <c r="D213" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B214" s="84"/>
-      <c r="C214" s="53"/>
-      <c r="D214" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B215" s="84"/>
-      <c r="C215" s="54" t="s">
-        <v>476</v>
+    <row r="215" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B215" s="63"/>
+      <c r="C215" s="106" t="s">
+        <v>474</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B216" s="84"/>
-      <c r="C216" s="54"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B216" s="63"/>
+      <c r="C216" s="106"/>
       <c r="D216" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B217" s="84"/>
-      <c r="C217" s="54"/>
+    <row r="217" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B217" s="63"/>
+      <c r="C217" s="106"/>
       <c r="D217" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B218" s="84"/>
-      <c r="C218" s="54"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B218" s="63"/>
+      <c r="C218" s="106"/>
       <c r="D218" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B219" s="84"/>
-      <c r="C219" s="54"/>
+    <row r="219" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B219" s="63"/>
+      <c r="C219" s="106"/>
       <c r="D219" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B220" s="84"/>
-      <c r="C220" s="54"/>
+    <row r="220" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B220" s="63"/>
+      <c r="C220" s="106"/>
       <c r="D220" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B221" s="84"/>
-      <c r="C221" s="54"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B221" s="63"/>
+      <c r="C221" s="106"/>
       <c r="D221" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="85"/>
-      <c r="C222" s="55"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B222" s="64"/>
+      <c r="C222" s="107"/>
       <c r="D222" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B224" s="83" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="224" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B224" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C224" s="78" t="s">
+      <c r="C224" s="88" t="s">
         <v>56</v>
       </c>
       <c r="D224" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B225" s="63"/>
+      <c r="C225" s="89"/>
+      <c r="D225" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B226" s="63"/>
+      <c r="C226" s="89"/>
+      <c r="D226" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B225" s="84"/>
-      <c r="C225" s="79"/>
-      <c r="D225" s="2" t="s">
+    <row r="227" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B227" s="63"/>
+      <c r="C227" s="89"/>
+      <c r="D227" s="2" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B226" s="84"/>
-      <c r="C226" s="79"/>
-      <c r="D226" s="2" t="s">
+    <row r="228" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B228" s="63"/>
+      <c r="C228" s="89"/>
+      <c r="D228" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B227" s="84"/>
-      <c r="C227" s="79"/>
-      <c r="D227" s="2" t="s">
+    <row r="229" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B229" s="63"/>
+      <c r="C229" s="89"/>
+      <c r="D229" s="2" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="228" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B228" s="84"/>
-      <c r="C228" s="79"/>
-      <c r="D228" s="2" t="s">
+    <row r="230" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B230" s="63"/>
+      <c r="C230" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B229" s="84"/>
-      <c r="C229" s="79"/>
-      <c r="D229" s="2" t="s">
+    <row r="231" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B231" s="63"/>
+      <c r="C231" s="90"/>
+      <c r="D231" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B232" s="63"/>
+      <c r="C232" s="90"/>
+      <c r="D232" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B230" s="84"/>
-      <c r="C230" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D230" s="2" t="s">
+    <row r="233" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B233" s="63"/>
+      <c r="C233" s="90"/>
+      <c r="D233" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B231" s="84"/>
-      <c r="C231" s="76"/>
-      <c r="D231" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B232" s="84"/>
-      <c r="C232" s="76"/>
-      <c r="D232" s="2" t="s">
+    <row r="234" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B234" s="63"/>
+      <c r="C234" s="90"/>
+      <c r="D234" s="2" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B233" s="84"/>
-      <c r="C233" s="76"/>
-      <c r="D233" s="2" t="s">
+    <row r="235" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B235" s="64"/>
+      <c r="C235" s="91"/>
+      <c r="D235" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B234" s="84"/>
-      <c r="C234" s="76"/>
-      <c r="D234" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="85"/>
-      <c r="C235" s="77"/>
-      <c r="D235" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="237" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B237" s="83" t="s">
+    <row r="236" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="237" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B237" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C237" s="52" t="s">
+      <c r="C237" s="104" t="s">
         <v>58</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B238" s="63"/>
+      <c r="C238" s="105"/>
+      <c r="D238" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B239" s="63"/>
+      <c r="C239" s="105"/>
+      <c r="D239" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B240" s="63"/>
+      <c r="C240" s="105"/>
+      <c r="D240" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B241" s="63"/>
+      <c r="C241" s="105"/>
+      <c r="D241" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B238" s="84"/>
-      <c r="C238" s="53"/>
-      <c r="D238" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B239" s="84"/>
-      <c r="C239" s="53"/>
-      <c r="D239" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B240" s="84"/>
-      <c r="C240" s="53"/>
-      <c r="D240" s="2" t="s">
+    <row r="242" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B242" s="63"/>
+      <c r="C242" s="105"/>
+      <c r="D242" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B241" s="84"/>
-      <c r="C241" s="53"/>
-      <c r="D241" s="2" t="s">
+    <row r="243" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B243" s="63"/>
+      <c r="C243" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B242" s="84"/>
-      <c r="C242" s="53"/>
-      <c r="D242" s="2" t="s">
+    <row r="244" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B244" s="63"/>
+      <c r="C244" s="106"/>
+      <c r="D244" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B243" s="84"/>
-      <c r="C243" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D243" s="2" t="s">
+    <row r="245" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B245" s="63"/>
+      <c r="C245" s="106"/>
+      <c r="D245" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B244" s="84"/>
-      <c r="C244" s="54"/>
-      <c r="D244" s="2" t="s">
+    <row r="246" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B246" s="63"/>
+      <c r="C246" s="106"/>
+      <c r="D246" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B245" s="84"/>
-      <c r="C245" s="54"/>
-      <c r="D245" s="2" t="s">
+    <row r="247" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B247" s="63"/>
+      <c r="C247" s="106"/>
+      <c r="D247" s="2" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B246" s="84"/>
-      <c r="C246" s="54"/>
-      <c r="D246" s="2" t="s">
+    <row r="248" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B248" s="63"/>
+      <c r="C248" s="106"/>
+      <c r="D248" s="2" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B247" s="84"/>
-      <c r="C247" s="54"/>
-      <c r="D247" s="2" t="s">
+    <row r="249" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="64"/>
+      <c r="C249" s="107"/>
+      <c r="D249" s="3" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="248" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B248" s="84"/>
-      <c r="C248" s="54"/>
-      <c r="D248" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="249" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="85"/>
-      <c r="C249" s="55"/>
-      <c r="D249" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="251" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B251" s="80" t="s">
+    <row r="250" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="251" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B251" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C251" s="52" t="s">
+      <c r="C251" s="104" t="s">
         <v>61</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B252" s="69"/>
+      <c r="C252" s="105"/>
+      <c r="D252" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B253" s="69"/>
+      <c r="C253" s="105"/>
+      <c r="D253" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B252" s="81"/>
-      <c r="C252" s="53"/>
-      <c r="D252" s="2" t="s">
+    <row r="254" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B254" s="69"/>
+      <c r="C254" s="105"/>
+      <c r="D254" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B255" s="69"/>
+      <c r="C255" s="105"/>
+      <c r="D255" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B253" s="81"/>
-      <c r="C253" s="53"/>
-      <c r="D253" s="2" t="s">
+    <row r="256" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B256" s="69"/>
+      <c r="C256" s="105"/>
+      <c r="D256" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B254" s="81"/>
-      <c r="C254" s="53"/>
-      <c r="D254" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B255" s="81"/>
-      <c r="C255" s="53"/>
-      <c r="D255" s="2" t="s">
+    <row r="257" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B257" s="69"/>
+      <c r="C257" s="105"/>
+      <c r="D257" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B256" s="81"/>
-      <c r="C256" s="53"/>
-      <c r="D256" s="2" t="s">
+    <row r="258" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B258" s="69"/>
+      <c r="C258" s="105"/>
+      <c r="D258" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B257" s="81"/>
-      <c r="C257" s="53"/>
-      <c r="D257" s="2" t="s">
+    <row r="259" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B259" s="69"/>
+      <c r="C259" s="106" t="s">
+        <v>667</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B258" s="81"/>
-      <c r="C258" s="53"/>
-      <c r="D258" s="2" t="s">
+    <row r="260" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B260" s="69"/>
+      <c r="C260" s="106"/>
+      <c r="D260" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B259" s="81"/>
-      <c r="C259" s="54" t="s">
-        <v>669</v>
-      </c>
-      <c r="D259" s="2" t="s">
+    <row r="261" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B261" s="69"/>
+      <c r="C261" s="106"/>
+      <c r="D261" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B260" s="81"/>
-      <c r="C260" s="54"/>
-      <c r="D260" s="2" t="s">
+    <row r="262" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B262" s="69"/>
+      <c r="C262" s="106"/>
+      <c r="D262" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B263" s="69"/>
+      <c r="C263" s="106"/>
+      <c r="D263" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B261" s="81"/>
-      <c r="C261" s="54"/>
-      <c r="D261" s="2" t="s">
+    <row r="264" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B264" s="69"/>
+      <c r="C264" s="106"/>
+      <c r="D264" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B262" s="81"/>
-      <c r="C262" s="54"/>
-      <c r="D262" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B263" s="81"/>
-      <c r="C263" s="54"/>
-      <c r="D263" s="2" t="s">
+    <row r="265" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B265" s="69"/>
+      <c r="C265" s="106"/>
+      <c r="D265" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B264" s="81"/>
-      <c r="C264" s="54"/>
-      <c r="D264" s="2" t="s">
+    <row r="266" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B266" s="70"/>
+      <c r="C266" s="107"/>
+      <c r="D266" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B265" s="81"/>
-      <c r="C265" s="54"/>
-      <c r="D265" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="82"/>
-      <c r="C266" s="55"/>
-      <c r="D266" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B268" s="99" t="s">
+    <row r="267" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="268" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B268" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C268" s="52" t="s">
+      <c r="C268" s="104" t="s">
         <v>63</v>
       </c>
       <c r="D268" s="45" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E268" s="46" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B269" s="100"/>
-      <c r="C269" s="53"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B269" s="80"/>
+      <c r="C269" s="105"/>
       <c r="D269" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B270" s="100"/>
-      <c r="C270" s="53"/>
+    </row>
+    <row r="270" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B270" s="80"/>
+      <c r="C270" s="105"/>
       <c r="D270" s="9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B271" s="100"/>
-      <c r="C271" s="53"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B271" s="80"/>
+      <c r="C271" s="105"/>
       <c r="D271" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B272" s="100"/>
-      <c r="C272" s="53"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B272" s="80"/>
+      <c r="C272" s="105"/>
       <c r="D272" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B273" s="100"/>
-      <c r="C273" s="54" t="s">
-        <v>669</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B273" s="80"/>
+      <c r="C273" s="106" t="s">
+        <v>667</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B274" s="100"/>
-      <c r="C274" s="54"/>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B274" s="80"/>
+      <c r="C274" s="106"/>
       <c r="D274" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="275" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B275" s="100"/>
-      <c r="C275" s="54"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B275" s="80"/>
+      <c r="C275" s="106"/>
       <c r="D275" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B276" s="100"/>
-      <c r="C276" s="54"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B276" s="80"/>
+      <c r="C276" s="106"/>
       <c r="D276" s="9"/>
       <c r="E276" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="101"/>
-      <c r="C277" s="55"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B277" s="81"/>
+      <c r="C277" s="107"/>
       <c r="D277" s="13"/>
       <c r="E277" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="47"/>
     </row>
-    <row r="279" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B279" s="111" t="s">
+    <row r="279" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B279" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="C279" s="52" t="s">
+      <c r="C279" s="104" t="s">
         <v>65</v>
       </c>
       <c r="D279" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B280" s="83"/>
+      <c r="C280" s="105"/>
+      <c r="D280" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B281" s="83"/>
+      <c r="C281" s="105"/>
+      <c r="D281" s="2" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B280" s="112"/>
-      <c r="C280" s="53"/>
-      <c r="D280" s="2" t="s">
+    <row r="282" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B282" s="83"/>
+      <c r="C282" s="105"/>
+      <c r="D282" s="2" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B281" s="112"/>
-      <c r="C281" s="53"/>
-      <c r="D281" s="2" t="s">
+    <row r="283" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B283" s="83"/>
+      <c r="C283" s="105"/>
+      <c r="D283" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B282" s="112"/>
-      <c r="C282" s="53"/>
-      <c r="D282" s="2" t="s">
+    <row r="284" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B284" s="83"/>
+      <c r="C284" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D284" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B283" s="112"/>
-      <c r="C283" s="53"/>
-      <c r="D283" s="2" t="s">
+    <row r="285" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B285" s="83"/>
+      <c r="C285" s="106"/>
+      <c r="D285" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B284" s="112"/>
-      <c r="C284" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D284" s="2" t="s">
+    <row r="286" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B286" s="83"/>
+      <c r="C286" s="106"/>
+      <c r="D286" s="2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B285" s="112"/>
-      <c r="C285" s="54"/>
-      <c r="D285" s="2" t="s">
+    <row r="287" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B287" s="83"/>
+      <c r="C287" s="106"/>
+      <c r="D287" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B286" s="112"/>
-      <c r="C286" s="54"/>
-      <c r="D286" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B287" s="112"/>
-      <c r="C287" s="54"/>
-      <c r="D287" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="113"/>
-      <c r="C288" s="55"/>
+    <row r="288" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="84"/>
+      <c r="C288" s="107"/>
       <c r="D288" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="289" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="290" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B290" s="83" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="290" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B290" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C290" s="64" t="s">
+      <c r="C290" s="96" t="s">
         <v>67</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B291" s="84"/>
-      <c r="C291" s="65"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B291" s="63"/>
+      <c r="C291" s="97"/>
       <c r="D291" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B292" s="84"/>
-      <c r="C292" s="65"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B292" s="63"/>
+      <c r="C292" s="97"/>
       <c r="D292" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B293" s="84"/>
-      <c r="C293" s="65"/>
+    <row r="293" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B293" s="63"/>
+      <c r="C293" s="97"/>
       <c r="D293" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="294" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B294" s="84"/>
-      <c r="C294" s="65"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B294" s="63"/>
+      <c r="C294" s="97"/>
       <c r="D294" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="295" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B295" s="84"/>
-      <c r="C295" s="65"/>
+    <row r="295" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B295" s="63"/>
+      <c r="C295" s="97"/>
       <c r="D295" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B296" s="63"/>
+      <c r="C296" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B297" s="63"/>
+      <c r="C297" s="98"/>
+      <c r="D297" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B298" s="63"/>
+      <c r="C298" s="98"/>
+      <c r="D298" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="296" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B296" s="84"/>
-      <c r="C296" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D296" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="297" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B297" s="84"/>
-      <c r="C297" s="50"/>
-      <c r="D297" s="2" t="s">
+    <row r="299" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B299" s="63"/>
+      <c r="C299" s="98"/>
+      <c r="D299" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B298" s="84"/>
-      <c r="C298" s="50"/>
-      <c r="D298" s="2" t="s">
+    <row r="300" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B300" s="63"/>
+      <c r="C300" s="98"/>
+      <c r="D300" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B299" s="84"/>
-      <c r="C299" s="50"/>
-      <c r="D299" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B300" s="84"/>
-      <c r="C300" s="50"/>
-      <c r="D300" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="85"/>
-      <c r="C301" s="51"/>
+    <row r="301" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="64"/>
+      <c r="C301" s="99"/>
       <c r="D301" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="302" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="303" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B303" s="89" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B303" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="96" t="s">
         <v>70</v>
       </c>
       <c r="D303" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B304" s="60"/>
+      <c r="C304" s="97"/>
+      <c r="D304" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B305" s="60"/>
+      <c r="C305" s="97"/>
+      <c r="D305" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B304" s="90"/>
-      <c r="C304" s="65"/>
-      <c r="D304" s="2" t="s">
+    <row r="306" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B306" s="60"/>
+      <c r="C306" s="97"/>
+      <c r="D306" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="305" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B305" s="90"/>
-      <c r="C305" s="65"/>
-      <c r="D305" s="2" t="s">
+    <row r="307" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B307" s="60"/>
+      <c r="C307" s="97"/>
+      <c r="D307" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="306" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B306" s="90"/>
-      <c r="C306" s="65"/>
-      <c r="D306" s="2" t="s">
+    <row r="308" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B308" s="60"/>
+      <c r="C308" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="D308" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="307" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B307" s="90"/>
-      <c r="C307" s="65"/>
-      <c r="D307" s="2" t="s">
+    <row r="309" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B309" s="60"/>
+      <c r="C309" s="98"/>
+      <c r="D309" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="308" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B308" s="90"/>
-      <c r="C308" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="D308" s="2" t="s">
+    <row r="310" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B310" s="60"/>
+      <c r="C310" s="98"/>
+      <c r="D310" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="309" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B309" s="90"/>
-      <c r="C309" s="50"/>
-      <c r="D309" s="2" t="s">
+    <row r="311" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B311" s="60"/>
+      <c r="C311" s="98"/>
+      <c r="D311" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="310" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B310" s="90"/>
-      <c r="C310" s="50"/>
-      <c r="D310" s="2" t="s">
+    <row r="312" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B312" s="60"/>
+      <c r="C312" s="98"/>
+      <c r="D312" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="311" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B311" s="90"/>
-      <c r="C311" s="50"/>
-      <c r="D311" s="2" t="s">
+    <row r="313" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="61"/>
+      <c r="C313" s="99"/>
+      <c r="D313" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="312" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B312" s="90"/>
-      <c r="C312" s="50"/>
-      <c r="D312" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="313" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="91"/>
-      <c r="C313" s="51"/>
-      <c r="D313" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="315" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B315" s="86" t="s">
+    <row r="314" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="315" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B315" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C315" s="64" t="s">
+      <c r="C315" s="96" t="s">
         <v>72</v>
       </c>
       <c r="D315" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B316" s="57"/>
+      <c r="C316" s="97"/>
+      <c r="D316" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B317" s="57"/>
+      <c r="C317" s="97"/>
+      <c r="D317" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="316" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B316" s="87"/>
-      <c r="C316" s="65"/>
-      <c r="D316" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B317" s="87"/>
-      <c r="C317" s="65"/>
-      <c r="D317" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B318" s="87"/>
-      <c r="C318" s="65"/>
+    <row r="318" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B318" s="57"/>
+      <c r="C318" s="97"/>
       <c r="D318" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B319" s="87"/>
-      <c r="C319" s="65"/>
+    <row r="319" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B319" s="57"/>
+      <c r="C319" s="97"/>
       <c r="D319" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B320" s="87"/>
-      <c r="C320" s="65"/>
+    <row r="320" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B320" s="57"/>
+      <c r="C320" s="97"/>
       <c r="D320" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B321" s="57"/>
+      <c r="C321" s="97"/>
+      <c r="D321" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B322" s="57"/>
+      <c r="C322" s="98" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B321" s="87"/>
-      <c r="C321" s="65"/>
-      <c r="D321" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B322" s="87"/>
-      <c r="C322" s="50" t="s">
-        <v>476</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B323" s="87"/>
-      <c r="C323" s="50"/>
+    <row r="323" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B323" s="57"/>
+      <c r="C323" s="98"/>
       <c r="D323" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B324" s="87"/>
-      <c r="C324" s="50"/>
+    <row r="324" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B324" s="57"/>
+      <c r="C324" s="98"/>
       <c r="D324" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B325" s="57"/>
+      <c r="C325" s="98"/>
+      <c r="D325" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B326" s="57"/>
+      <c r="C326" s="98"/>
+      <c r="D326" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B325" s="87"/>
-      <c r="C325" s="50"/>
-      <c r="D325" s="2" t="s">
+    <row r="327" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B327" s="57"/>
+      <c r="C327" s="98"/>
+      <c r="D327" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B326" s="87"/>
-      <c r="C326" s="50"/>
-      <c r="D326" s="2" t="s">
+    <row r="328" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B328" s="57"/>
+      <c r="C328" s="98"/>
+      <c r="D328" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B327" s="87"/>
-      <c r="C327" s="50"/>
-      <c r="D327" s="2" t="s">
+    <row r="329" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B329" s="58"/>
+      <c r="C329" s="99"/>
+      <c r="D329" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B328" s="87"/>
-      <c r="C328" s="50"/>
-      <c r="D328" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="88"/>
-      <c r="C329" s="51"/>
-      <c r="D329" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="331" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B331" s="83" t="s">
+    <row r="330" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="331" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B331" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C331" s="72" t="s">
+      <c r="C331" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B332" s="63"/>
+      <c r="C332" s="109"/>
+      <c r="D332" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B333" s="63"/>
+      <c r="C333" s="109"/>
+      <c r="D333" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B334" s="63"/>
+      <c r="C334" s="109"/>
+      <c r="D334" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B335" s="63"/>
+      <c r="C335" s="109"/>
+      <c r="D335" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B336" s="63"/>
+      <c r="C336" s="109"/>
+      <c r="D336" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B337" s="63"/>
+      <c r="C337" s="109"/>
+      <c r="D337" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B338" s="63"/>
+      <c r="C338" s="110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B339" s="63"/>
+      <c r="C339" s="110"/>
+      <c r="D339" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B340" s="63"/>
+      <c r="C340" s="110"/>
+      <c r="D340" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341" s="63"/>
+      <c r="C341" s="110"/>
+      <c r="D341" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342" s="63"/>
+      <c r="C342" s="110"/>
+      <c r="D342" s="25" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343" s="63"/>
+      <c r="C343" s="110"/>
+      <c r="D343" s="25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B344" s="64"/>
+      <c r="C344" s="111"/>
+      <c r="D344" s="26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="346" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B346" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C346" s="104" t="s">
+        <v>435</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B347" s="54"/>
+      <c r="C347" s="105"/>
+      <c r="D347" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B348" s="54"/>
+      <c r="C348" s="105"/>
+      <c r="D348" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D331" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B332" s="84"/>
-      <c r="C332" s="73"/>
-      <c r="D332" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B333" s="84"/>
-      <c r="C333" s="73"/>
-      <c r="D333" s="5" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B334" s="84"/>
-      <c r="C334" s="73"/>
-      <c r="D334" s="5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B335" s="84"/>
-      <c r="C335" s="73"/>
-      <c r="D335" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B336" s="84"/>
-      <c r="C336" s="73"/>
-      <c r="D336" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B337" s="84"/>
-      <c r="C337" s="73"/>
-      <c r="D337" s="5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B338" s="84"/>
-      <c r="C338" s="74" t="s">
-        <v>461</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B339" s="84"/>
-      <c r="C339" s="74"/>
-      <c r="D339" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B340" s="84"/>
-      <c r="C340" s="74"/>
-      <c r="D340" s="5" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B341" s="84"/>
-      <c r="C341" s="74"/>
-      <c r="D341" s="25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B342" s="84"/>
-      <c r="C342" s="74"/>
-      <c r="D342" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B343" s="84"/>
-      <c r="C343" s="74"/>
-      <c r="D343" s="25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B344" s="85"/>
-      <c r="C344" s="75"/>
-      <c r="D344" s="26" t="s">
+    </row>
+    <row r="349" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B349" s="54"/>
+      <c r="C349" s="105"/>
+      <c r="D349" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B350" s="54"/>
+      <c r="C350" s="105"/>
+      <c r="D350" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B351" s="54"/>
+      <c r="C351" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B352" s="54"/>
+      <c r="C352" s="106"/>
+      <c r="D352" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B353" s="54"/>
+      <c r="C353" s="106"/>
+      <c r="D353" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B354" s="54"/>
+      <c r="C354" s="106"/>
+      <c r="D354" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="55"/>
+      <c r="C355" s="107"/>
+      <c r="D355" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357" s="56" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="345" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="346" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B346" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C346" s="52" t="s">
-        <v>437</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B347" s="115"/>
-      <c r="C347" s="53"/>
-      <c r="D347" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B348" s="115"/>
-      <c r="C348" s="53"/>
-      <c r="D348" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B349" s="115"/>
-      <c r="C349" s="53"/>
-      <c r="D349" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B350" s="115"/>
-      <c r="C350" s="53"/>
-      <c r="D350" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B351" s="115"/>
-      <c r="C351" s="54" t="s">
+      <c r="C357" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D357" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358" s="57"/>
+      <c r="C358" s="105"/>
+      <c r="D358" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359" s="57"/>
+      <c r="C359" s="105"/>
+      <c r="D359" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360" s="57"/>
+      <c r="C360" s="105"/>
+      <c r="D360" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361" s="57"/>
+      <c r="C361" s="105"/>
+      <c r="D361" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B362" s="57"/>
+      <c r="C362" s="105"/>
+      <c r="D362" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B363" s="57"/>
+      <c r="C363" s="105"/>
+      <c r="D363" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B364" s="57"/>
+      <c r="C364" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="D364" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B365" s="57"/>
+      <c r="C365" s="106"/>
+      <c r="D365" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366" s="57"/>
+      <c r="C366" s="106"/>
+      <c r="D366" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B367" s="57"/>
+      <c r="C367" s="106"/>
+      <c r="D367" s="22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B368" s="57"/>
+      <c r="C368" s="106"/>
+      <c r="D368" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B369" s="57"/>
+      <c r="C369" s="106"/>
+      <c r="D369" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370" s="57"/>
+      <c r="C370" s="106"/>
+      <c r="D370" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B371" s="58"/>
+      <c r="C371" s="107"/>
+      <c r="D371" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="373" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B373" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C373" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B374" s="63"/>
+      <c r="C374" s="105"/>
+      <c r="D374" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B375" s="63"/>
+      <c r="C375" s="105"/>
+      <c r="D375" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B376" s="63"/>
+      <c r="C376" s="105"/>
+      <c r="D376" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B377" s="63"/>
+      <c r="C377" s="105"/>
+      <c r="D377" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B378" s="63"/>
+      <c r="C378" s="105"/>
+      <c r="D378" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B379" s="63"/>
+      <c r="C379" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B380" s="63"/>
+      <c r="C380" s="106"/>
+      <c r="D380" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B381" s="63"/>
+      <c r="C381" s="106"/>
+      <c r="D381" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B382" s="63"/>
+      <c r="C382" s="106"/>
+      <c r="D382" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B383" s="63"/>
+      <c r="C383" s="106"/>
+      <c r="D383" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B384" s="64"/>
+      <c r="C384" s="107"/>
+      <c r="D384" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="386" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B386" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C386" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B387" s="63"/>
+      <c r="C387" s="105"/>
+      <c r="D387" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B388" s="63"/>
+      <c r="C388" s="105"/>
+      <c r="D388" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B389" s="63"/>
+      <c r="C389" s="105"/>
+      <c r="D389" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B390" s="63"/>
+      <c r="C390" s="105"/>
+      <c r="D390" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B391" s="63"/>
+      <c r="C391" s="105"/>
+      <c r="D391" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B392" s="63"/>
+      <c r="C392" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B393" s="63"/>
+      <c r="C393" s="106"/>
+      <c r="D393" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B394" s="63"/>
+      <c r="C394" s="106"/>
+      <c r="D394" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B395" s="63"/>
+      <c r="C395" s="106"/>
+      <c r="D395" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B396" s="63"/>
+      <c r="C396" s="106"/>
+      <c r="D396" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B397" s="64"/>
+      <c r="C397" s="107"/>
+      <c r="D397" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="399" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B399" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C399" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B400" s="74"/>
+      <c r="C400" s="115"/>
+      <c r="D400" s="5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B401" s="74"/>
+      <c r="C401" s="115"/>
+      <c r="D401" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B402" s="74"/>
+      <c r="C402" s="115"/>
+      <c r="D402" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B403" s="74"/>
+      <c r="C403" s="115"/>
+      <c r="D403" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B404" s="74"/>
+      <c r="C404" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="D351" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B352" s="115"/>
-      <c r="C352" s="54"/>
-      <c r="D352" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B353" s="115"/>
-      <c r="C353" s="54"/>
-      <c r="D353" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B354" s="115"/>
-      <c r="C354" s="54"/>
-      <c r="D354" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B355" s="116"/>
-      <c r="C355" s="55"/>
-      <c r="D355" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B357" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="C357" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="D357" s="21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B358" s="87"/>
-      <c r="C358" s="53"/>
-      <c r="D358" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B359" s="87"/>
-      <c r="C359" s="53"/>
-      <c r="D359" s="22" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B360" s="87"/>
-      <c r="C360" s="53"/>
-      <c r="D360" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B361" s="87"/>
-      <c r="C361" s="53"/>
-      <c r="D361" s="22" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B362" s="87"/>
-      <c r="C362" s="53"/>
-      <c r="D362" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B363" s="87"/>
-      <c r="C363" s="53"/>
-      <c r="D363" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B364" s="87"/>
-      <c r="C364" s="54" t="s">
-        <v>476</v>
-      </c>
-      <c r="D364" s="22" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B365" s="87"/>
-      <c r="C365" s="54"/>
-      <c r="D365" s="22" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B366" s="87"/>
-      <c r="C366" s="54"/>
-      <c r="D366" s="22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B367" s="87"/>
-      <c r="C367" s="54"/>
-      <c r="D367" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B368" s="87"/>
-      <c r="C368" s="54"/>
-      <c r="D368" s="22" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B369" s="87"/>
-      <c r="C369" s="54"/>
-      <c r="D369" s="22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B370" s="87"/>
-      <c r="C370" s="54"/>
-      <c r="D370" s="22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="371" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="88"/>
-      <c r="C371" s="55"/>
-      <c r="D371" s="23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="373" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B373" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C373" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B374" s="84"/>
-      <c r="C374" s="53"/>
-      <c r="D374" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B375" s="84"/>
-      <c r="C375" s="53"/>
-      <c r="D375" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B376" s="84"/>
-      <c r="C376" s="53"/>
-      <c r="D376" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B377" s="84"/>
-      <c r="C377" s="53"/>
-      <c r="D377" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B378" s="84"/>
-      <c r="C378" s="53"/>
-      <c r="D378" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B379" s="84"/>
-      <c r="C379" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B380" s="84"/>
-      <c r="C380" s="54"/>
-      <c r="D380" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="381" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B381" s="84"/>
-      <c r="C381" s="54"/>
-      <c r="D381" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B382" s="84"/>
-      <c r="C382" s="54"/>
-      <c r="D382" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B383" s="84"/>
-      <c r="C383" s="54"/>
-      <c r="D383" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B384" s="85"/>
-      <c r="C384" s="55"/>
-      <c r="D384" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="385" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="386" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B386" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="C386" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D386" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="387" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B387" s="84"/>
-      <c r="C387" s="53"/>
-      <c r="D387" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="388" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B388" s="84"/>
-      <c r="C388" s="53"/>
-      <c r="D388" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="389" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B389" s="84"/>
-      <c r="C389" s="53"/>
-      <c r="D389" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="390" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B390" s="84"/>
-      <c r="C390" s="53"/>
-      <c r="D390" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="391" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B391" s="84"/>
-      <c r="C391" s="53"/>
-      <c r="D391" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="392" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B392" s="84"/>
-      <c r="C392" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="393" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B393" s="84"/>
-      <c r="C393" s="54"/>
-      <c r="D393" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="394" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B394" s="84"/>
-      <c r="C394" s="54"/>
-      <c r="D394" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="395" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B395" s="84"/>
-      <c r="C395" s="54"/>
-      <c r="D395" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="396" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B396" s="84"/>
-      <c r="C396" s="54"/>
-      <c r="D396" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="397" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="85"/>
-      <c r="C397" s="55"/>
-      <c r="D397" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="398" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="399" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B399" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="C399" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="400" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B400" s="103"/>
-      <c r="C400" s="69"/>
-      <c r="D400" s="5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B401" s="103"/>
-      <c r="C401" s="69"/>
-      <c r="D401" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B402" s="103"/>
-      <c r="C402" s="69"/>
-      <c r="D402" s="5" t="s">
+      <c r="D404" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B403" s="103"/>
-      <c r="C403" s="69"/>
-      <c r="D403" s="5" t="s">
+    <row r="405" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B405" s="74"/>
+      <c r="C405" s="116"/>
+      <c r="D405" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B404" s="103"/>
-      <c r="C404" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="D404" s="5" t="s">
+    <row r="406" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B406" s="74"/>
+      <c r="C406" s="116"/>
+      <c r="D406" s="5" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="405" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B405" s="103"/>
-      <c r="C405" s="70"/>
-      <c r="D405" s="5" t="s">
+    <row r="407" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B407" s="74"/>
+      <c r="C407" s="116"/>
+      <c r="D407" s="5" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="406" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B406" s="103"/>
-      <c r="C406" s="70"/>
-      <c r="D406" s="5" t="s">
+    <row r="408" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B408" s="75"/>
+      <c r="C408" s="117"/>
+      <c r="D408" s="6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="407" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B407" s="103"/>
-      <c r="C407" s="70"/>
-      <c r="D407" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="408" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="104"/>
-      <c r="C408" s="71"/>
-      <c r="D408" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B410" s="86" t="s">
+    <row r="409" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B410" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C410" s="52" t="s">
+      <c r="C410" s="104" t="s">
         <v>83</v>
       </c>
       <c r="D410" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B411" s="57"/>
+      <c r="C411" s="105"/>
+      <c r="D411" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B412" s="57"/>
+      <c r="C412" s="105"/>
+      <c r="D412" s="22" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B411" s="87"/>
-      <c r="C411" s="53"/>
-      <c r="D411" s="22" t="s">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B413" s="57"/>
+      <c r="C413" s="105"/>
+      <c r="D413" s="22" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B412" s="87"/>
-      <c r="C412" s="53"/>
-      <c r="D412" s="22" t="s">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B414" s="57"/>
+      <c r="C414" s="105"/>
+      <c r="D414" s="22" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B413" s="87"/>
-      <c r="C413" s="53"/>
-      <c r="D413" s="22" t="s">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B415" s="57"/>
+      <c r="C415" s="105"/>
+      <c r="D415" s="22" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B414" s="87"/>
-      <c r="C414" s="53"/>
-      <c r="D414" s="22" t="s">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B416" s="57"/>
+      <c r="C416" s="105"/>
+      <c r="D416" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B415" s="87"/>
-      <c r="C415" s="53"/>
-      <c r="D415" s="22" t="s">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B417" s="57"/>
+      <c r="C417" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D417" s="22" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B416" s="87"/>
-      <c r="C416" s="53"/>
-      <c r="D416" s="22" t="s">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B418" s="57"/>
+      <c r="C418" s="106"/>
+      <c r="D418" s="22" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B417" s="87"/>
-      <c r="C417" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D417" s="22" t="s">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B419" s="57"/>
+      <c r="C419" s="106"/>
+      <c r="D419" s="22" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B418" s="87"/>
-      <c r="C418" s="54"/>
-      <c r="D418" s="22" t="s">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B420" s="57"/>
+      <c r="C420" s="106"/>
+      <c r="D420" s="22" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B419" s="87"/>
-      <c r="C419" s="54"/>
-      <c r="D419" s="22" t="s">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B421" s="57"/>
+      <c r="C421" s="106"/>
+      <c r="D421" s="22" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B420" s="87"/>
-      <c r="C420" s="54"/>
-      <c r="D420" s="22" t="s">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B422" s="57"/>
+      <c r="C422" s="106"/>
+      <c r="D422" s="22" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B421" s="87"/>
-      <c r="C421" s="54"/>
-      <c r="D421" s="22" t="s">
+    <row r="423" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B423" s="58"/>
+      <c r="C423" s="107"/>
+      <c r="D423" s="23" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B422" s="87"/>
-      <c r="C422" s="54"/>
-      <c r="D422" s="22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="423" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="88"/>
-      <c r="C423" s="55"/>
-      <c r="D423" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="424" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="425" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B425" s="57" t="s">
+    <row r="424" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="425" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B425" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C425" s="52" t="s">
+      <c r="C425" s="104" t="s">
+        <v>364</v>
+      </c>
+      <c r="D425" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D425" s="4" t="s">
+    </row>
+    <row r="426" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B426" s="120"/>
+      <c r="C426" s="105"/>
+      <c r="D426" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B427" s="120"/>
+      <c r="C427" s="105"/>
+      <c r="D427" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="426" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B426" s="58"/>
-      <c r="C426" s="53"/>
-      <c r="D426" s="5" t="s">
+    <row r="428" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B428" s="120"/>
+      <c r="C428" s="105"/>
+      <c r="D428" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="427" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B427" s="58"/>
-      <c r="C427" s="53"/>
-      <c r="D427" s="5" t="s">
+    <row r="429" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B429" s="120"/>
+      <c r="C429" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B430" s="120"/>
+      <c r="C430" s="106"/>
+      <c r="D430" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="428" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B428" s="58"/>
-      <c r="C428" s="53"/>
-      <c r="D428" s="5" t="s">
+    <row r="431" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B431" s="120"/>
+      <c r="C431" s="106"/>
+      <c r="D431" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="429" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B429" s="58"/>
-      <c r="C429" s="54" t="s">
-        <v>367</v>
-      </c>
-      <c r="D429" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="430" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B430" s="58"/>
-      <c r="C430" s="54"/>
-      <c r="D430" s="5" t="s">
+    <row r="432" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B432" s="120"/>
+      <c r="C432" s="106"/>
+      <c r="D432" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B433" s="121"/>
+      <c r="C433" s="107"/>
+      <c r="D433" s="6" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="431" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B431" s="58"/>
-      <c r="C431" s="54"/>
-      <c r="D431" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="432" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B432" s="58"/>
-      <c r="C432" s="54"/>
-      <c r="D432" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="433" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B433" s="59"/>
-      <c r="C433" s="55"/>
-      <c r="D433" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="435" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B435" s="105" t="s">
+    <row r="435" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B435" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C435" s="66" t="s">
+      <c r="C435" s="112" t="s">
         <v>87</v>
       </c>
       <c r="D435" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="436" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B436" s="106"/>
-      <c r="C436" s="53"/>
+    <row r="436" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B436" s="77"/>
+      <c r="C436" s="105"/>
       <c r="D436" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="437" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B437" s="106"/>
-      <c r="C437" s="53"/>
+    <row r="437" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B437" s="77"/>
+      <c r="C437" s="105"/>
       <c r="D437" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="438" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B438" s="106"/>
-      <c r="C438" s="53"/>
+    <row r="438" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B438" s="77"/>
+      <c r="C438" s="105"/>
       <c r="D438" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="439" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B439" s="106"/>
-      <c r="C439" s="53"/>
+    <row r="439" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B439" s="77"/>
+      <c r="C439" s="105"/>
       <c r="D439" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="440" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B440" s="106"/>
-      <c r="C440" s="53"/>
+    <row r="440" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B440" s="77"/>
+      <c r="C440" s="105"/>
       <c r="D440" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="441" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B441" s="106"/>
-      <c r="C441" s="54" t="s">
+    <row r="441" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B441" s="77"/>
+      <c r="C441" s="106" t="s">
         <v>68</v>
       </c>
       <c r="D441" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="442" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B442" s="106"/>
-      <c r="C442" s="54"/>
+    <row r="442" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B442" s="77"/>
+      <c r="C442" s="106"/>
       <c r="D442" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="443" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B443" s="106"/>
-      <c r="C443" s="54"/>
+    <row r="443" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B443" s="77"/>
+      <c r="C443" s="106"/>
       <c r="D443" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="444" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B444" s="106"/>
-      <c r="C444" s="54"/>
+    <row r="444" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B444" s="77"/>
+      <c r="C444" s="106"/>
       <c r="D444" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="445" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B445" s="106"/>
-      <c r="C445" s="54"/>
+    <row r="445" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B445" s="77"/>
+      <c r="C445" s="106"/>
       <c r="D445" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="446" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B446" s="107"/>
-      <c r="C446" s="67"/>
+    <row r="446" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B446" s="78"/>
+      <c r="C446" s="113"/>
       <c r="D446" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="448" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B448" s="105" t="s">
+    <row r="448" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B448" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C448" s="66" t="s">
+      <c r="C448" s="112" t="s">
         <v>100</v>
       </c>
       <c r="D448" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="449" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B449" s="106"/>
-      <c r="C449" s="53"/>
+    <row r="449" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B449" s="77"/>
+      <c r="C449" s="105"/>
       <c r="D449" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="450" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B450" s="106"/>
-      <c r="C450" s="53"/>
+    <row r="450" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B450" s="77"/>
+      <c r="C450" s="105"/>
       <c r="D450" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="451" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B451" s="106"/>
-      <c r="C451" s="53"/>
+    <row r="451" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B451" s="77"/>
+      <c r="C451" s="105"/>
       <c r="D451" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="452" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B452" s="106"/>
-      <c r="C452" s="53"/>
+    <row r="452" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B452" s="77"/>
+      <c r="C452" s="105"/>
       <c r="D452" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="453" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B453" s="106"/>
-      <c r="C453" s="53"/>
+    <row r="453" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B453" s="77"/>
+      <c r="C453" s="105"/>
       <c r="D453" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="454" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B454" s="106"/>
-      <c r="C454" s="54" t="s">
+    <row r="454" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B454" s="77"/>
+      <c r="C454" s="106" t="s">
         <v>68</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="455" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B455" s="106"/>
-      <c r="C455" s="54"/>
+    <row r="455" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B455" s="77"/>
+      <c r="C455" s="106"/>
       <c r="D455" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="456" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B456" s="106"/>
-      <c r="C456" s="54"/>
+    <row r="456" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B456" s="77"/>
+      <c r="C456" s="106"/>
       <c r="D456" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="457" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B457" s="106"/>
-      <c r="C457" s="54"/>
+    <row r="457" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B457" s="77"/>
+      <c r="C457" s="106"/>
       <c r="D457" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="458" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B458" s="106"/>
-      <c r="C458" s="54"/>
+    <row r="458" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B458" s="77"/>
+      <c r="C458" s="106"/>
       <c r="D458" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="459" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B459" s="107"/>
-      <c r="C459" s="67"/>
+    <row r="459" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B459" s="78"/>
+      <c r="C459" s="113"/>
       <c r="D459" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="460" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="461" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B461" s="108" t="s">
+    <row r="460" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="461" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B461" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C461" s="64" t="s">
+      <c r="C461" s="96" t="s">
         <v>114</v>
       </c>
       <c r="D461" s="42" t="s">
@@ -6855,9 +6857,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B462" s="109"/>
-      <c r="C462" s="65"/>
+    <row r="462" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B462" s="66"/>
+      <c r="C462" s="97"/>
       <c r="D462" s="11" t="s">
         <v>115</v>
       </c>
@@ -6865,9 +6867,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="463" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B463" s="109"/>
-      <c r="C463" s="65"/>
+    <row r="463" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B463" s="66"/>
+      <c r="C463" s="97"/>
       <c r="D463" s="11" t="s">
         <v>117</v>
       </c>
@@ -6875,9 +6877,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="464" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B464" s="109"/>
-      <c r="C464" s="65"/>
+    <row r="464" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B464" s="66"/>
+      <c r="C464" s="97"/>
       <c r="D464" s="11" t="s">
         <v>119</v>
       </c>
@@ -6885,9 +6887,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="465" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B465" s="109"/>
-      <c r="C465" s="65"/>
+    <row r="465" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B465" s="66"/>
+      <c r="C465" s="97"/>
       <c r="D465" s="11" t="s">
         <v>121</v>
       </c>
@@ -6895,9 +6897,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="466" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B466" s="109"/>
-      <c r="C466" s="65"/>
+    <row r="466" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B466" s="66"/>
+      <c r="C466" s="97"/>
       <c r="D466" s="11" t="s">
         <v>123</v>
       </c>
@@ -6905,10 +6907,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="467" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B467" s="109"/>
-      <c r="C467" s="50" t="s">
-        <v>701</v>
+    <row r="467" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B467" s="66"/>
+      <c r="C467" s="98" t="s">
+        <v>699</v>
       </c>
       <c r="D467" s="11" t="s">
         <v>125</v>
@@ -6917,9 +6919,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="468" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B468" s="109"/>
-      <c r="C468" s="50"/>
+    <row r="468" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B468" s="66"/>
+      <c r="C468" s="98"/>
       <c r="D468" s="11" t="s">
         <v>127</v>
       </c>
@@ -6927,9 +6929,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B469" s="109"/>
-      <c r="C469" s="50"/>
+    <row r="469" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B469" s="66"/>
+      <c r="C469" s="98"/>
       <c r="D469" s="11" t="s">
         <v>129</v>
       </c>
@@ -6937,9 +6939,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B470" s="109"/>
-      <c r="C470" s="50"/>
+    <row r="470" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B470" s="66"/>
+      <c r="C470" s="98"/>
       <c r="D470" s="11" t="s">
         <v>131</v>
       </c>
@@ -6947,9 +6949,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="471" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B471" s="109"/>
-      <c r="C471" s="50"/>
+    <row r="471" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B471" s="66"/>
+      <c r="C471" s="98"/>
       <c r="D471" s="11" t="s">
         <v>133</v>
       </c>
@@ -6957,125 +6959,125 @@
         <v>134</v>
       </c>
     </row>
-    <row r="472" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B472" s="110"/>
-      <c r="C472" s="51"/>
+    <row r="472" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B472" s="67"/>
+      <c r="C472" s="99"/>
       <c r="D472" s="48"/>
       <c r="E472" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="473" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="474" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B474" s="83" t="s">
+    <row r="473" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="474" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B474" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C474" s="52" t="s">
+      <c r="C474" s="104" t="s">
         <v>137</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="475" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B475" s="84"/>
-      <c r="C475" s="53"/>
+    <row r="475" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B475" s="63"/>
+      <c r="C475" s="105"/>
       <c r="D475" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="476" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B476" s="84"/>
-      <c r="C476" s="53"/>
+    <row r="476" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B476" s="63"/>
+      <c r="C476" s="105"/>
       <c r="D476" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="477" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B477" s="84"/>
-      <c r="C477" s="53"/>
+    <row r="477" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B477" s="63"/>
+      <c r="C477" s="105"/>
       <c r="D477" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="478" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B478" s="84"/>
-      <c r="C478" s="53"/>
+    <row r="478" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B478" s="63"/>
+      <c r="C478" s="105"/>
       <c r="D478" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="479" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B479" s="84"/>
-      <c r="C479" s="53"/>
+    <row r="479" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B479" s="63"/>
+      <c r="C479" s="105"/>
       <c r="D479" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="480" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B480" s="84"/>
-      <c r="C480" s="53"/>
+    <row r="480" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B480" s="63"/>
+      <c r="C480" s="105"/>
       <c r="D480" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="481" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B481" s="84"/>
-      <c r="C481" s="54" t="s">
+    <row r="481" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B481" s="63"/>
+      <c r="C481" s="106" t="s">
         <v>84</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="482" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B482" s="84"/>
-      <c r="C482" s="54"/>
+    <row r="482" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B482" s="63"/>
+      <c r="C482" s="106"/>
       <c r="D482" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="483" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B483" s="84"/>
-      <c r="C483" s="54"/>
+    <row r="483" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B483" s="63"/>
+      <c r="C483" s="106"/>
       <c r="D483" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="484" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B484" s="84"/>
-      <c r="C484" s="54"/>
+    <row r="484" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B484" s="63"/>
+      <c r="C484" s="106"/>
       <c r="D484" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="485" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B485" s="84"/>
-      <c r="C485" s="54"/>
+    <row r="485" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B485" s="63"/>
+      <c r="C485" s="106"/>
       <c r="D485" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B486" s="84"/>
-      <c r="C486" s="54"/>
+    <row r="486" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B486" s="63"/>
+      <c r="C486" s="106"/>
       <c r="D486" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="487" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="85"/>
-      <c r="C487" s="55"/>
+    <row r="487" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B487" s="64"/>
+      <c r="C487" s="107"/>
       <c r="D487" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="488" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="489" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B489" s="83" t="s">
+    <row r="488" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="489" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B489" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="C489" s="60" t="s">
+      <c r="C489" s="100" t="s">
         <v>153</v>
       </c>
       <c r="D489" s="12" t="s">
@@ -7085,9 +7087,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="490" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B490" s="84"/>
-      <c r="C490" s="61"/>
+    <row r="490" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B490" s="63"/>
+      <c r="C490" s="101"/>
       <c r="D490" s="9" t="s">
         <v>156</v>
       </c>
@@ -7095,9 +7097,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="491" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B491" s="84"/>
-      <c r="C491" s="61"/>
+    <row r="491" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B491" s="63"/>
+      <c r="C491" s="101"/>
       <c r="D491" s="9" t="s">
         <v>158</v>
       </c>
@@ -7105,9 +7107,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="492" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B492" s="84"/>
-      <c r="C492" s="61"/>
+    <row r="492" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B492" s="63"/>
+      <c r="C492" s="101"/>
       <c r="D492" s="9" t="s">
         <v>160</v>
       </c>
@@ -7115,9 +7117,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="493" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B493" s="84"/>
-      <c r="C493" s="61"/>
+    <row r="493" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B493" s="63"/>
+      <c r="C493" s="101"/>
       <c r="D493" s="9" t="s">
         <v>162</v>
       </c>
@@ -7125,9 +7127,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="494" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B494" s="84"/>
-      <c r="C494" s="62" t="s">
+    <row r="494" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B494" s="63"/>
+      <c r="C494" s="102" t="s">
         <v>164</v>
       </c>
       <c r="D494" s="9" t="s">
@@ -7137,9 +7139,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="495" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B495" s="84"/>
-      <c r="C495" s="62"/>
+    <row r="495" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B495" s="63"/>
+      <c r="C495" s="102"/>
       <c r="D495" s="9" t="s">
         <v>167</v>
       </c>
@@ -7147,9 +7149,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="496" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B496" s="84"/>
-      <c r="C496" s="62"/>
+    <row r="496" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B496" s="63"/>
+      <c r="C496" s="102"/>
       <c r="D496" s="9" t="s">
         <v>169</v>
       </c>
@@ -7157,9 +7159,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="497" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B497" s="84"/>
-      <c r="C497" s="62"/>
+    <row r="497" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B497" s="63"/>
+      <c r="C497" s="102"/>
       <c r="D497" s="9" t="s">
         <v>171</v>
       </c>
@@ -7167,9 +7169,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="498" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B498" s="85"/>
-      <c r="C498" s="63"/>
+    <row r="498" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B498" s="64"/>
+      <c r="C498" s="103"/>
       <c r="D498" s="13" t="s">
         <v>173</v>
       </c>
@@ -7177,328 +7179,328 @@
         <v>174</v>
       </c>
     </row>
-    <row r="499" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="500" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B500" s="80" t="s">
+    <row r="499" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="500" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B500" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="C500" s="60" t="s">
+      <c r="C500" s="100" t="s">
         <v>176</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="501" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B501" s="81"/>
-      <c r="C501" s="61"/>
+    <row r="501" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B501" s="69"/>
+      <c r="C501" s="101"/>
       <c r="D501" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="502" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B502" s="81"/>
-      <c r="C502" s="61"/>
+    <row r="502" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B502" s="69"/>
+      <c r="C502" s="101"/>
       <c r="D502" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="503" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B503" s="81"/>
-      <c r="C503" s="61"/>
+    <row r="503" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B503" s="69"/>
+      <c r="C503" s="101"/>
       <c r="D503" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="504" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B504" s="81"/>
-      <c r="C504" s="61"/>
+    <row r="504" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B504" s="69"/>
+      <c r="C504" s="101"/>
       <c r="D504" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="505" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B505" s="81"/>
-      <c r="C505" s="61"/>
+    <row r="505" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B505" s="69"/>
+      <c r="C505" s="101"/>
       <c r="D505" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="506" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B506" s="81"/>
-      <c r="C506" s="61"/>
+    <row r="506" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B506" s="69"/>
+      <c r="C506" s="101"/>
       <c r="D506" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="507" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B507" s="81"/>
-      <c r="C507" s="61"/>
+    <row r="507" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B507" s="69"/>
+      <c r="C507" s="101"/>
       <c r="D507" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="508" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B508" s="81"/>
-      <c r="C508" s="62" t="s">
-        <v>669</v>
+    <row r="508" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B508" s="69"/>
+      <c r="C508" s="102" t="s">
+        <v>667</v>
       </c>
       <c r="D508" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="509" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B509" s="81"/>
-      <c r="C509" s="62"/>
+    <row r="509" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B509" s="69"/>
+      <c r="C509" s="102"/>
       <c r="D509" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="510" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B510" s="81"/>
-      <c r="C510" s="62"/>
+    <row r="510" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B510" s="69"/>
+      <c r="C510" s="102"/>
       <c r="D510" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="511" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B511" s="81"/>
-      <c r="C511" s="62"/>
+    <row r="511" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B511" s="69"/>
+      <c r="C511" s="102"/>
       <c r="D511" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="512" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B512" s="81"/>
-      <c r="C512" s="62"/>
+    <row r="512" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B512" s="69"/>
+      <c r="C512" s="102"/>
       <c r="D512" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="513" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B513" s="81"/>
-      <c r="C513" s="62"/>
+    <row r="513" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B513" s="69"/>
+      <c r="C513" s="102"/>
       <c r="D513" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="514" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B514" s="81"/>
-      <c r="C514" s="62"/>
+    <row r="514" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B514" s="69"/>
+      <c r="C514" s="102"/>
       <c r="D514" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="515" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B515" s="82"/>
-      <c r="C515" s="63"/>
+    <row r="515" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B515" s="70"/>
+      <c r="C515" s="103"/>
       <c r="D515" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="516" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="517" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B517" s="86" t="s">
+    <row r="516" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="517" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B517" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="C517" s="104" t="s">
         <v>193</v>
-      </c>
-      <c r="C517" s="52" t="s">
-        <v>194</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="518" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B518" s="87"/>
-      <c r="C518" s="53"/>
+    <row r="518" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B518" s="57"/>
+      <c r="C518" s="105"/>
       <c r="D518" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B519" s="57"/>
+      <c r="C519" s="105"/>
+      <c r="D519" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="519" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B519" s="87"/>
-      <c r="C519" s="53"/>
-      <c r="D519" s="2" t="s">
+    <row r="520" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B520" s="57"/>
+      <c r="C520" s="105"/>
+      <c r="D520" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="520" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B520" s="87"/>
-      <c r="C520" s="53"/>
-      <c r="D520" s="2" t="s">
+    <row r="521" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B521" s="57"/>
+      <c r="C521" s="105"/>
+      <c r="D521" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="521" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B521" s="87"/>
-      <c r="C521" s="53"/>
-      <c r="D521" s="2" t="s">
+    <row r="522" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B522" s="57"/>
+      <c r="C522" s="105"/>
+      <c r="D522" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="522" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B522" s="87"/>
-      <c r="C522" s="53"/>
-      <c r="D522" s="2" t="s">
+    <row r="523" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B523" s="57"/>
+      <c r="C523" s="105"/>
+      <c r="D523" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="523" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B523" s="87"/>
-      <c r="C523" s="53"/>
-      <c r="D523" s="2" t="s">
+    <row r="524" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B524" s="57"/>
+      <c r="C524" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="524" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B524" s="87"/>
-      <c r="C524" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D524" s="2" t="s">
+    <row r="525" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B525" s="57"/>
+      <c r="C525" s="106"/>
+      <c r="D525" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="525" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B525" s="87"/>
-      <c r="C525" s="54"/>
-      <c r="D525" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="526" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B526" s="87"/>
-      <c r="C526" s="54"/>
+    <row r="526" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B526" s="57"/>
+      <c r="C526" s="106"/>
       <c r="D526" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="527" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B527" s="87"/>
-      <c r="C527" s="54"/>
+    <row r="527" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B527" s="57"/>
+      <c r="C527" s="106"/>
       <c r="D527" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B528" s="57"/>
+      <c r="C528" s="106"/>
+      <c r="D528" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="528" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B528" s="87"/>
-      <c r="C528" s="54"/>
-      <c r="D528" s="2" t="s">
+    <row r="529" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B529" s="57"/>
+      <c r="C529" s="106"/>
+      <c r="D529" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="529" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B529" s="87"/>
-      <c r="C529" s="54"/>
-      <c r="D529" s="2" t="s">
+    <row r="530" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B530" s="58"/>
+      <c r="C530" s="107"/>
+      <c r="D530" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="530" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B530" s="88"/>
-      <c r="C530" s="55"/>
-      <c r="D530" s="3" t="s">
+    <row r="531" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="532" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B532" s="62" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="531" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="532" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B532" s="83" t="s">
+      <c r="C532" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="C532" s="52" t="s">
+      <c r="D532" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D532" s="1" t="s">
+    </row>
+    <row r="533" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B533" s="63"/>
+      <c r="C533" s="105"/>
+      <c r="D533" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="533" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B533" s="84"/>
-      <c r="C533" s="53"/>
-      <c r="D533" s="2" t="s">
+    <row r="534" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B534" s="63"/>
+      <c r="C534" s="105"/>
+      <c r="D534" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="534" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B534" s="84"/>
-      <c r="C534" s="53"/>
-      <c r="D534" s="2" t="s">
+    <row r="535" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B535" s="63"/>
+      <c r="C535" s="105"/>
+      <c r="D535" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="535" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B535" s="84"/>
-      <c r="C535" s="53"/>
-      <c r="D535" s="2" t="s">
+    <row r="536" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B536" s="63"/>
+      <c r="C536" s="105"/>
+      <c r="D536" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="536" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B536" s="84"/>
-      <c r="C536" s="53"/>
-      <c r="D536" s="2" t="s">
+    <row r="537" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B537" s="63"/>
+      <c r="C537" s="105"/>
+      <c r="D537" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="537" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B537" s="84"/>
-      <c r="C537" s="53"/>
-      <c r="D537" s="2" t="s">
+    <row r="538" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B538" s="63"/>
+      <c r="C538" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="538" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B538" s="84"/>
-      <c r="C538" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D538" s="2" t="s">
+    <row r="539" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B539" s="63"/>
+      <c r="C539" s="106"/>
+      <c r="D539" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="539" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B539" s="84"/>
-      <c r="C539" s="54"/>
-      <c r="D539" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="540" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B540" s="84"/>
-      <c r="C540" s="54"/>
+    <row r="540" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B540" s="63"/>
+      <c r="C540" s="106"/>
       <c r="D540" s="14">
         <v>9.1944999999999997</v>
       </c>
     </row>
-    <row r="541" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B541" s="84"/>
-      <c r="C541" s="54"/>
+    <row r="541" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B541" s="63"/>
+      <c r="C541" s="106"/>
       <c r="D541" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B542" s="63"/>
+      <c r="C542" s="106"/>
+      <c r="D542" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="542" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B542" s="84"/>
-      <c r="C542" s="54"/>
-      <c r="D542" s="2" t="s">
+    <row r="543" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B543" s="64"/>
+      <c r="C543" s="107"/>
+      <c r="D543" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="543" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B543" s="85"/>
-      <c r="C543" s="55"/>
-      <c r="D543" s="3" t="s">
+    <row r="544" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="545" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B545" s="56" t="s">
+        <v>705</v>
+      </c>
+      <c r="C545" s="104" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="544" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="545" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B545" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="C545" s="52" t="s">
-        <v>221</v>
       </c>
       <c r="D545" s="19" t="s">
         <v>10</v>
@@ -7507,267 +7509,267 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B546" s="87"/>
-      <c r="C546" s="53"/>
+    <row r="546" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B546" s="57"/>
+      <c r="C546" s="105"/>
       <c r="D546" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="547" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B547" s="57"/>
+      <c r="C547" s="105"/>
+      <c r="D547" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E546" s="5" t="s">
+      <c r="E547" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="547" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B547" s="87"/>
-      <c r="C547" s="53"/>
-      <c r="D547" s="9" t="s">
+    <row r="548" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B548" s="57"/>
+      <c r="C548" s="105"/>
+      <c r="D548" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E548" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E547" s="5" t="s">
+    </row>
+    <row r="549" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B549" s="57"/>
+      <c r="C549" s="105"/>
+      <c r="D549" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="548" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B548" s="87"/>
-      <c r="C548" s="53"/>
-      <c r="D548" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E548" s="5" t="s">
+      <c r="E549" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="549" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B549" s="87"/>
-      <c r="C549" s="53"/>
-      <c r="D549" s="9" t="s">
+    <row r="550" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B550" s="57"/>
+      <c r="C550" s="105"/>
+      <c r="D550" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E549" s="5" t="s">
+      <c r="E550" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="550" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B550" s="87"/>
-      <c r="C550" s="53"/>
-      <c r="D550" s="9" t="s">
+    <row r="551" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B551" s="57"/>
+      <c r="C551" s="105"/>
+      <c r="D551" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E550" s="5" t="s">
+      <c r="E551" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="551" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B551" s="87"/>
-      <c r="C551" s="53"/>
-      <c r="D551" s="9" t="s">
+    <row r="552" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B552" s="57"/>
+      <c r="C552" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="E551" s="5" t="s">
+      <c r="D552" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="552" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B552" s="87"/>
-      <c r="C552" s="54" t="s">
+      <c r="E552" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D552" s="9" t="s">
+    </row>
+    <row r="553" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B553" s="57"/>
+      <c r="C553" s="106"/>
+      <c r="D553" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E552" s="5" t="s">
+      <c r="E553" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="553" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B553" s="87"/>
-      <c r="C553" s="54"/>
-      <c r="D553" s="9" t="s">
+    <row r="554" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B554" s="57"/>
+      <c r="C554" s="106"/>
+      <c r="D554" s="118" t="s">
         <v>236</v>
       </c>
-      <c r="E553" s="5" t="s">
+      <c r="E554" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="554" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B554" s="87"/>
-      <c r="C554" s="54"/>
-      <c r="D554" s="56" t="s">
+    <row r="555" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B555" s="57"/>
+      <c r="C555" s="106"/>
+      <c r="D555" s="118"/>
+      <c r="E555" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E554" s="5" t="s">
+    </row>
+    <row r="556" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B556" s="57"/>
+      <c r="C556" s="106"/>
+      <c r="D556" s="118"/>
+      <c r="E556" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="555" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B555" s="87"/>
-      <c r="C555" s="54"/>
-      <c r="D555" s="56"/>
-      <c r="E555" s="5" t="s">
+    <row r="557" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B557" s="57"/>
+      <c r="C557" s="106"/>
+      <c r="D557" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="556" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B556" s="87"/>
-      <c r="C556" s="54"/>
-      <c r="D556" s="56"/>
-      <c r="E556" s="5" t="s">
+      <c r="E557" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="557" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B557" s="87"/>
-      <c r="C557" s="54"/>
-      <c r="D557" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E557" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="558" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B558" s="87"/>
-      <c r="C558" s="54"/>
+    <row r="558" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B558" s="57"/>
+      <c r="C558" s="106"/>
       <c r="D558" s="7"/>
       <c r="E558" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="559" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B559" s="88"/>
-      <c r="C559" s="55"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="559" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B559" s="58"/>
+      <c r="C559" s="107"/>
       <c r="D559" s="49"/>
       <c r="E559" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="560" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="561" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B561" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C561" s="100" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="560" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="561" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B561" s="80" t="s">
+      <c r="D561" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C561" s="60" t="s">
+      <c r="E561" s="15"/>
+    </row>
+    <row r="562" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B562" s="69"/>
+      <c r="C562" s="101"/>
+      <c r="D562" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D561" s="4" t="s">
+    </row>
+    <row r="563" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B563" s="69"/>
+      <c r="C563" s="101"/>
+      <c r="D563" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E561" s="15"/>
-    </row>
-    <row r="562" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B562" s="81"/>
-      <c r="C562" s="61"/>
-      <c r="D562" s="5" t="s">
+    </row>
+    <row r="564" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B564" s="69"/>
+      <c r="C564" s="101"/>
+      <c r="D564" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="563" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B563" s="81"/>
-      <c r="C563" s="61"/>
-      <c r="D563" s="5" t="s">
+    <row r="565" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B565" s="69"/>
+      <c r="C565" s="101"/>
+      <c r="D565" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="564" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B564" s="81"/>
-      <c r="C564" s="61"/>
-      <c r="D564" s="5" t="s">
+    <row r="566" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B566" s="69"/>
+      <c r="C566" s="101"/>
+      <c r="D566" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="565" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B565" s="81"/>
-      <c r="C565" s="61"/>
-      <c r="D565" s="5" t="s">
+    <row r="567" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B567" s="69"/>
+      <c r="C567" s="101"/>
+      <c r="D567" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="566" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B566" s="81"/>
-      <c r="C566" s="61"/>
-      <c r="D566" s="5" t="s">
+    <row r="568" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B568" s="69"/>
+      <c r="C568" s="101"/>
+      <c r="D568" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="567" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B567" s="81"/>
-      <c r="C567" s="61"/>
-      <c r="D567" s="5" t="s">
+    <row r="569" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B569" s="69"/>
+      <c r="C569" s="102" t="s">
+        <v>667</v>
+      </c>
+      <c r="D569" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="568" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B568" s="81"/>
-      <c r="C568" s="61"/>
-      <c r="D568" s="5" t="s">
+    <row r="570" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B570" s="69"/>
+      <c r="C570" s="102"/>
+      <c r="D570" s="5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="571" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B571" s="69"/>
+      <c r="C571" s="102"/>
+      <c r="D571" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="569" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B569" s="81"/>
-      <c r="C569" s="62" t="s">
-        <v>669</v>
-      </c>
-      <c r="D569" s="5" t="s">
+    <row r="572" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B572" s="69"/>
+      <c r="C572" s="102"/>
+      <c r="D572" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="570" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B570" s="81"/>
-      <c r="C570" s="62"/>
-      <c r="D570" s="5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="571" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B571" s="81"/>
-      <c r="C571" s="62"/>
-      <c r="D571" s="5" t="s">
+    <row r="573" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B573" s="69"/>
+      <c r="C573" s="102"/>
+      <c r="D573" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="572" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B572" s="81"/>
-      <c r="C572" s="62"/>
-      <c r="D572" s="5" t="s">
+    <row r="574" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B574" s="69"/>
+      <c r="C574" s="102"/>
+      <c r="D574" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="573" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B573" s="81"/>
-      <c r="C573" s="62"/>
-      <c r="D573" s="5" t="s">
+    <row r="575" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B575" s="69"/>
+      <c r="C575" s="102"/>
+      <c r="D575" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="574" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B574" s="81"/>
-      <c r="C574" s="62"/>
-      <c r="D574" s="5" t="s">
+    <row r="576" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B576" s="70"/>
+      <c r="C576" s="103"/>
+      <c r="D576" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="575" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B575" s="81"/>
-      <c r="C575" s="62"/>
-      <c r="D575" s="5" t="s">
+    <row r="577" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="578" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B578" s="85" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="576" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B576" s="82"/>
-      <c r="C576" s="63"/>
-      <c r="D576" s="6" t="s">
+      <c r="C578" s="96" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="577" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="578" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B578" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="C578" s="64" t="s">
-        <v>264</v>
       </c>
       <c r="D578" s="45" t="s">
         <v>10</v>
@@ -7776,696 +7778,696 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B579" s="97"/>
-      <c r="C579" s="65"/>
+    <row r="579" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B579" s="86"/>
+      <c r="C579" s="97"/>
       <c r="D579" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="580" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B580" s="97"/>
-      <c r="C580" s="65"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="580" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B580" s="86"/>
+      <c r="C580" s="97"/>
       <c r="D580" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E580" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="581" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B581" s="86"/>
+      <c r="C581" s="97"/>
+      <c r="D581" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E581" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="581" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B581" s="97"/>
-      <c r="C581" s="65"/>
-      <c r="D581" s="9" t="s">
+    <row r="582" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B582" s="86"/>
+      <c r="C582" s="97"/>
+      <c r="D582" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E581" s="2" t="s">
+      <c r="E582" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="582" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B582" s="97"/>
-      <c r="C582" s="65"/>
-      <c r="D582" s="9" t="s">
+    <row r="583" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B583" s="86"/>
+      <c r="C583" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="D583" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E582" s="2" t="s">
+      <c r="E583" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="583" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B583" s="97"/>
-      <c r="C583" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D583" s="9" t="s">
+    <row r="584" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B584" s="86"/>
+      <c r="C584" s="98"/>
+      <c r="D584" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E583" s="2" t="s">
+      <c r="E584" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="584" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B584" s="97"/>
-      <c r="C584" s="50"/>
-      <c r="D584" s="9" t="s">
+    <row r="585" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B585" s="86"/>
+      <c r="C585" s="98"/>
+      <c r="D585" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="E584" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="585" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B585" s="97"/>
-      <c r="C585" s="50"/>
-      <c r="D585" s="9" t="s">
-        <v>276</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="586" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B586" s="97"/>
-      <c r="C586" s="50"/>
+    <row r="586" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B586" s="86"/>
+      <c r="C586" s="98"/>
       <c r="D586" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="587" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B587" s="86"/>
+      <c r="C587" s="98"/>
+      <c r="D587" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E586" s="2" t="s">
+      <c r="E587" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="587" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B587" s="97"/>
-      <c r="C587" s="50"/>
-      <c r="D587" s="9" t="s">
+    <row r="588" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B588" s="87"/>
+      <c r="C588" s="99"/>
+      <c r="D588" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E587" s="2" t="s">
+      <c r="E588" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="588" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B588" s="98"/>
-      <c r="C588" s="51"/>
-      <c r="D588" s="13" t="s">
+    <row r="589" spans="2:5" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="590" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B590" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="E588" s="3" t="s">
+      <c r="C590" s="104" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="589" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="590" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B590" s="99" t="s">
+      <c r="D590" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C590" s="52" t="s">
+    </row>
+    <row r="591" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B591" s="80"/>
+      <c r="C591" s="105"/>
+      <c r="D591" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D590" s="1" t="s">
+    </row>
+    <row r="592" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B592" s="80"/>
+      <c r="C592" s="105"/>
+      <c r="D592" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="591" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B591" s="100"/>
-      <c r="C591" s="53"/>
-      <c r="D591" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="592" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B592" s="100"/>
-      <c r="C592" s="53"/>
-      <c r="D592" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="593" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B593" s="100"/>
-      <c r="C593" s="53"/>
+    <row r="593" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B593" s="80"/>
+      <c r="C593" s="105"/>
       <c r="D593" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="594" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B594" s="100"/>
-      <c r="C594" s="53"/>
+    <row r="594" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B594" s="80"/>
+      <c r="C594" s="105"/>
       <c r="D594" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="595" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B595" s="100"/>
-      <c r="C595" s="53"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B595" s="80"/>
+      <c r="C595" s="105"/>
       <c r="D595" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="596" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B596" s="100"/>
-      <c r="C596" s="54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B596" s="80"/>
+      <c r="C596" s="106" t="s">
         <v>59</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="597" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B597" s="100"/>
-      <c r="C597" s="54"/>
+    <row r="597" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B597" s="80"/>
+      <c r="C597" s="106"/>
       <c r="D597" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="598" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B598" s="100"/>
-      <c r="C598" s="54"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="598" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B598" s="80"/>
+      <c r="C598" s="106"/>
       <c r="D598" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="599" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B599" s="100"/>
-      <c r="C599" s="54"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B599" s="80"/>
+      <c r="C599" s="106"/>
       <c r="D599" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="600" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B600" s="100"/>
-      <c r="C600" s="54"/>
+    <row r="600" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B600" s="80"/>
+      <c r="C600" s="106"/>
       <c r="D600" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B601" s="80"/>
+      <c r="C601" s="106"/>
+      <c r="D601" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B602" s="81"/>
+      <c r="C602" s="107"/>
+      <c r="D602" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="601" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B601" s="100"/>
-      <c r="C601" s="54"/>
-      <c r="D601" s="2" t="s">
+    <row r="603" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="604" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B604" s="68" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="602" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B602" s="101"/>
-      <c r="C602" s="55"/>
-      <c r="D602" s="3" t="s">
+      <c r="C604" s="104" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="603" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="604" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B604" s="80" t="s">
-        <v>295</v>
-      </c>
-      <c r="C604" s="52" t="s">
-        <v>296</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="605" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B605" s="81"/>
-      <c r="C605" s="53"/>
+    <row r="605" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B605" s="69"/>
+      <c r="C605" s="105"/>
       <c r="D605" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="606" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B606" s="81"/>
-      <c r="C606" s="53"/>
+    <row r="606" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B606" s="69"/>
+      <c r="C606" s="105"/>
       <c r="D606" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="607" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B607" s="81"/>
-      <c r="C607" s="53"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B607" s="69"/>
+      <c r="C607" s="105"/>
       <c r="D607" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="608" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B608" s="81"/>
-      <c r="C608" s="53"/>
+    <row r="608" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B608" s="69"/>
+      <c r="C608" s="105"/>
       <c r="D608" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="609" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B609" s="81"/>
-      <c r="C609" s="53"/>
+    <row r="609" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B609" s="69"/>
+      <c r="C609" s="105"/>
       <c r="D609" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="610" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B610" s="81"/>
-      <c r="C610" s="53"/>
+    <row r="610" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B610" s="69"/>
+      <c r="C610" s="105"/>
       <c r="D610" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="611" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B611" s="81"/>
-      <c r="C611" s="53"/>
+    <row r="611" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B611" s="69"/>
+      <c r="C611" s="105"/>
       <c r="D611" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="612" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B612" s="81"/>
-      <c r="C612" s="54" t="s">
-        <v>669</v>
+    <row r="612" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B612" s="69"/>
+      <c r="C612" s="106" t="s">
+        <v>667</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="613" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B613" s="81"/>
-      <c r="C613" s="54"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="613" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B613" s="69"/>
+      <c r="C613" s="106"/>
       <c r="D613" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="614" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B614" s="81"/>
-      <c r="C614" s="54"/>
+    <row r="614" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B614" s="69"/>
+      <c r="C614" s="106"/>
       <c r="D614" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="615" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B615" s="81"/>
-      <c r="C615" s="54"/>
+    <row r="615" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B615" s="69"/>
+      <c r="C615" s="106"/>
       <c r="D615" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="616" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B616" s="81"/>
-      <c r="C616" s="54"/>
+    <row r="616" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B616" s="69"/>
+      <c r="C616" s="106"/>
       <c r="D616" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="617" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B617" s="81"/>
-      <c r="C617" s="54"/>
+    <row r="617" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B617" s="69"/>
+      <c r="C617" s="106"/>
       <c r="D617" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="618" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B618" s="81"/>
-      <c r="C618" s="54"/>
+    <row r="618" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B618" s="69"/>
+      <c r="C618" s="106"/>
       <c r="D618" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="619" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B619" s="82"/>
-      <c r="C619" s="55"/>
+    <row r="619" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B619" s="70"/>
+      <c r="C619" s="107"/>
       <c r="D619" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="620" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="621" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B621" s="83" t="s">
-        <v>703</v>
-      </c>
-      <c r="C621" s="52" t="s">
-        <v>298</v>
+    <row r="620" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="621" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B621" s="62" t="s">
+        <v>701</v>
+      </c>
+      <c r="C621" s="104" t="s">
+        <v>296</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="622" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B622" s="84"/>
-      <c r="C622" s="53"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B622" s="63"/>
+      <c r="C622" s="105"/>
       <c r="D622" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="623" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B623" s="84"/>
-      <c r="C623" s="53"/>
+    <row r="623" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B623" s="63"/>
+      <c r="C623" s="105"/>
       <c r="D623" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B624" s="63"/>
+      <c r="C624" s="105"/>
+      <c r="D624" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B625" s="63"/>
+      <c r="C625" s="105"/>
+      <c r="D625" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="624" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B624" s="84"/>
-      <c r="C624" s="53"/>
-      <c r="D624" s="2" t="s">
+    <row r="626" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B626" s="63"/>
+      <c r="C626" s="105"/>
+      <c r="D626" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="625" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B625" s="84"/>
-      <c r="C625" s="53"/>
-      <c r="D625" s="2" t="s">
+    <row r="627" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B627" s="63"/>
+      <c r="C627" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D627" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="626" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B626" s="84"/>
-      <c r="C626" s="53"/>
-      <c r="D626" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="627" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B627" s="84"/>
-      <c r="C627" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D627" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="628" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B628" s="84"/>
-      <c r="C628" s="54"/>
+    <row r="628" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B628" s="63"/>
+      <c r="C628" s="106"/>
       <c r="D628" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="629" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B629" s="84"/>
-      <c r="C629" s="54"/>
+    <row r="629" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B629" s="63"/>
+      <c r="C629" s="106"/>
       <c r="D629" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B630" s="63"/>
+      <c r="C630" s="106"/>
+      <c r="D630" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B631" s="63"/>
+      <c r="C631" s="106"/>
+      <c r="D631" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="630" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B630" s="84"/>
-      <c r="C630" s="54"/>
-      <c r="D630" s="2" t="s">
+    <row r="632" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B632" s="64"/>
+      <c r="C632" s="107"/>
+      <c r="D632" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="631" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B631" s="84"/>
-      <c r="C631" s="54"/>
-      <c r="D631" s="2" t="s">
+    <row r="633" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="634" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B634" s="62" t="s">
+        <v>702</v>
+      </c>
+      <c r="C634" s="104" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="632" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B632" s="85"/>
-      <c r="C632" s="55"/>
-      <c r="D632" s="3" t="s">
+      <c r="D634" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="633" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="634" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B634" s="83" t="s">
-        <v>704</v>
-      </c>
-      <c r="C634" s="52" t="s">
+    <row r="635" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B635" s="63"/>
+      <c r="C635" s="105"/>
+      <c r="D635" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D634" s="1" t="s">
+    </row>
+    <row r="636" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B636" s="63"/>
+      <c r="C636" s="105"/>
+      <c r="D636" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="635" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B635" s="84"/>
-      <c r="C635" s="53"/>
-      <c r="D635" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="636" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B636" s="84"/>
-      <c r="C636" s="53"/>
-      <c r="D636" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="637" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B637" s="84"/>
-      <c r="C637" s="53"/>
+    <row r="637" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B637" s="63"/>
+      <c r="C637" s="105"/>
       <c r="D637" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="638" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B638" s="84"/>
-      <c r="C638" s="53"/>
+    <row r="638" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B638" s="63"/>
+      <c r="C638" s="105"/>
       <c r="D638" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B639" s="84"/>
-      <c r="C639" s="53"/>
+    <row r="639" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B639" s="63"/>
+      <c r="C639" s="105"/>
       <c r="D639" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="640" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B640" s="84"/>
-      <c r="C640" s="53"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="640" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B640" s="63"/>
+      <c r="C640" s="105"/>
       <c r="D640" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="641" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B641" s="63"/>
+      <c r="C641" s="106" t="s">
+        <v>474</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B642" s="63"/>
+      <c r="C642" s="106"/>
+      <c r="D642" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="643" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B643" s="63"/>
+      <c r="C643" s="106"/>
+      <c r="D643" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="641" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B641" s="84"/>
-      <c r="C641" s="54" t="s">
-        <v>476</v>
-      </c>
-      <c r="D641" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="642" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B642" s="84"/>
-      <c r="C642" s="54"/>
-      <c r="D642" s="2" t="s">
+    <row r="644" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B644" s="63"/>
+      <c r="C644" s="106"/>
+      <c r="D644" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="643" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B643" s="84"/>
-      <c r="C643" s="54"/>
-      <c r="D643" s="2" t="s">
+    <row r="645" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B645" s="63"/>
+      <c r="C645" s="106"/>
+      <c r="D645" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="644" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B644" s="84"/>
-      <c r="C644" s="54"/>
-      <c r="D644" s="2" t="s">
+    <row r="646" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B646" s="63"/>
+      <c r="C646" s="106"/>
+      <c r="D646" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="645" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B645" s="84"/>
-      <c r="C645" s="54"/>
-      <c r="D645" s="2" t="s">
+    <row r="647" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B647" s="63"/>
+      <c r="C647" s="106"/>
+      <c r="D647" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="646" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B646" s="84"/>
-      <c r="C646" s="54"/>
-      <c r="D646" s="2" t="s">
+    <row r="648" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B648" s="64"/>
+      <c r="C648" s="107"/>
+      <c r="D648" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="647" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B647" s="84"/>
-      <c r="C647" s="54"/>
-      <c r="D647" s="2" t="s">
+    <row r="649" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="650" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B650" s="56" t="s">
+        <v>703</v>
+      </c>
+      <c r="C650" s="100" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="648" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B648" s="85"/>
-      <c r="C648" s="55"/>
-      <c r="D648" s="3" t="s">
+      <c r="D650" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="649" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="650" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B650" s="86" t="s">
-        <v>705</v>
-      </c>
-      <c r="C650" s="60" t="s">
+    <row r="651" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B651" s="57"/>
+      <c r="C651" s="101"/>
+      <c r="D651" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D650" s="4" t="s">
+    </row>
+    <row r="652" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B652" s="57"/>
+      <c r="C652" s="101"/>
+      <c r="D652" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="651" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B651" s="87"/>
-      <c r="C651" s="61"/>
-      <c r="D651" s="5" t="s">
+    <row r="653" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B653" s="57"/>
+      <c r="C653" s="101"/>
+      <c r="D653" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="652" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B652" s="87"/>
-      <c r="C652" s="61"/>
-      <c r="D652" s="5" t="s">
+    <row r="654" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B654" s="57"/>
+      <c r="C654" s="101"/>
+      <c r="D654" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="653" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B653" s="87"/>
-      <c r="C653" s="61"/>
-      <c r="D653" s="5" t="s">
+    <row r="655" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B655" s="57"/>
+      <c r="C655" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D655" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="654" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B654" s="87"/>
-      <c r="C654" s="61"/>
-      <c r="D654" s="5" t="s">
+    <row r="656" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B656" s="57"/>
+      <c r="C656" s="102"/>
+      <c r="D656" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="655" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B655" s="87"/>
-      <c r="C655" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D655" s="5" t="s">
+    <row r="657" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B657" s="57"/>
+      <c r="C657" s="102"/>
+      <c r="D657" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="656" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B656" s="87"/>
-      <c r="C656" s="62"/>
-      <c r="D656" s="5" t="s">
+    <row r="658" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B658" s="57"/>
+      <c r="C658" s="102"/>
+      <c r="D658" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="657" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B657" s="87"/>
-      <c r="C657" s="62"/>
-      <c r="D657" s="5" t="s">
+    <row r="659" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B659" s="58"/>
+      <c r="C659" s="103"/>
+      <c r="D659" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="658" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B658" s="87"/>
-      <c r="C658" s="62"/>
-      <c r="D658" s="5" t="s">
+    <row r="660" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="661" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B661" s="59" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="659" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B659" s="88"/>
-      <c r="C659" s="63"/>
-      <c r="D659" s="6" t="s">
+      <c r="C661" s="96" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="660" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="661" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B661" s="89" t="s">
+      <c r="D661" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C661" s="64" t="s">
+    </row>
+    <row r="662" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B662" s="60"/>
+      <c r="C662" s="97"/>
+      <c r="D662" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D661" s="16" t="s">
+    </row>
+    <row r="663" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B663" s="60"/>
+      <c r="C663" s="97"/>
+      <c r="D663" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="664" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B664" s="60"/>
+      <c r="C664" s="97"/>
+      <c r="D664" s="17" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="662" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B662" s="90"/>
-      <c r="C662" s="65"/>
-      <c r="D662" s="17" t="s">
+    <row r="665" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B665" s="60"/>
+      <c r="C665" s="97"/>
+      <c r="D665" s="17" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="663" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B663" s="90"/>
-      <c r="C663" s="65"/>
-      <c r="D663" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="664" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B664" s="90"/>
-      <c r="C664" s="65"/>
-      <c r="D664" s="17" t="s">
+    <row r="666" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B666" s="60"/>
+      <c r="C666" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="D666" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="665" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B665" s="90"/>
-      <c r="C665" s="65"/>
-      <c r="D665" s="17" t="s">
+    <row r="667" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B667" s="60"/>
+      <c r="C667" s="98"/>
+      <c r="D667" s="17" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="666" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B666" s="90"/>
-      <c r="C666" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="D666" s="17" t="s">
+    <row r="668" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B668" s="60"/>
+      <c r="C668" s="98"/>
+      <c r="D668" s="17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="667" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B667" s="90"/>
-      <c r="C667" s="50"/>
-      <c r="D667" s="17" t="s">
+    <row r="669" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B669" s="60"/>
+      <c r="C669" s="98"/>
+      <c r="D669" s="17" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="668" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B668" s="90"/>
-      <c r="C668" s="50"/>
-      <c r="D668" s="17" t="s">
+    <row r="670" spans="2:4" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B670" s="60"/>
+      <c r="C670" s="98"/>
+      <c r="D670" s="17" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="669" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B669" s="90"/>
-      <c r="C669" s="50"/>
-      <c r="D669" s="17" t="s">
+    <row r="671" spans="2:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B671" s="61"/>
+      <c r="C671" s="99"/>
+      <c r="D671" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="670" spans="2:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B670" s="90"/>
-      <c r="C670" s="50"/>
-      <c r="D670" s="17" t="s">
+    <row r="672" spans="2:4" ht="14.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="673" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B673" s="62" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="671" spans="2:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B671" s="91"/>
-      <c r="C671" s="51"/>
-      <c r="D671" s="18" t="s">
+      <c r="C673" s="104" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="672" spans="2:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="673" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B673" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="C673" s="52" t="s">
-        <v>344</v>
       </c>
       <c r="D673" s="19" t="s">
         <v>10</v>
@@ -8474,184 +8476,226 @@
         <v>11</v>
       </c>
     </row>
-    <row r="674" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B674" s="84"/>
-      <c r="C674" s="53"/>
+    <row r="674" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B674" s="63"/>
+      <c r="C674" s="105"/>
       <c r="D674" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E674" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="675" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B675" s="63"/>
+      <c r="C675" s="105"/>
+      <c r="D675" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E675" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="675" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B675" s="84"/>
-      <c r="C675" s="53"/>
-      <c r="D675" s="9" t="s">
+    <row r="676" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B676" s="63"/>
+      <c r="C676" s="105"/>
+      <c r="D676" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E675" s="5" t="s">
+      <c r="E676" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="676" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B676" s="84"/>
-      <c r="C676" s="53"/>
-      <c r="D676" s="9" t="s">
+    <row r="677" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B677" s="63"/>
+      <c r="C677" s="105"/>
+      <c r="D677" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E677" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E676" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="677" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B677" s="84"/>
-      <c r="C677" s="53"/>
-      <c r="D677" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E677" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="678" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B678" s="84"/>
-      <c r="C678" s="53"/>
+    </row>
+    <row r="678" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B678" s="63"/>
+      <c r="C678" s="105"/>
       <c r="D678" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E678" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="679" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B679" s="84"/>
-      <c r="C679" s="53"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="679" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B679" s="63"/>
+      <c r="C679" s="105"/>
       <c r="D679" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E679" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="680" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B680" s="84"/>
-      <c r="C680" s="54" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="680" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B680" s="63"/>
+      <c r="C680" s="106" t="s">
+        <v>351</v>
       </c>
       <c r="D680" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E680" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="681" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B681" s="63"/>
+      <c r="C681" s="106"/>
+      <c r="D681" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E681" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="681" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B681" s="84"/>
-      <c r="C681" s="54"/>
-      <c r="D681" s="9" t="s">
+    <row r="682" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B682" s="63"/>
+      <c r="C682" s="106"/>
+      <c r="D682" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E681" s="5" t="s">
+      <c r="E682" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="682" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B682" s="84"/>
-      <c r="C682" s="54"/>
-      <c r="D682" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E682" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="683" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B683" s="84"/>
-      <c r="C683" s="54"/>
+    <row r="683" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B683" s="63"/>
+      <c r="C683" s="106"/>
       <c r="D683" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E683" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="684" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B684" s="63"/>
+      <c r="C684" s="106"/>
+      <c r="D684" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E684" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="684" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B684" s="84"/>
-      <c r="C684" s="54"/>
-      <c r="D684" s="9" t="s">
+    <row r="685" spans="2:5" ht="15.45" x14ac:dyDescent="0.3">
+      <c r="B685" s="63"/>
+      <c r="C685" s="106"/>
+      <c r="D685" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E684" s="5" t="s">
+      <c r="E685" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="685" spans="2:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B685" s="84"/>
-      <c r="C685" s="54"/>
-      <c r="D685" s="9" t="s">
+    <row r="686" spans="2:5" ht="15.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B686" s="64"/>
+      <c r="C686" s="107"/>
+      <c r="D686" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="E685" s="5" t="s">
+      <c r="E686" s="6" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="686" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B686" s="85"/>
-      <c r="C686" s="55"/>
-      <c r="D686" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="E686" s="6" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="B48:B57"/>
-    <mergeCell ref="B59:B69"/>
-    <mergeCell ref="B71:B82"/>
-    <mergeCell ref="B84:B97"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="B112:B127"/>
-    <mergeCell ref="B129:B140"/>
-    <mergeCell ref="B142:B156"/>
-    <mergeCell ref="B158:B169"/>
-    <mergeCell ref="B171:B182"/>
-    <mergeCell ref="B184:B193"/>
-    <mergeCell ref="B195:B206"/>
-    <mergeCell ref="B208:B222"/>
-    <mergeCell ref="B224:B235"/>
-    <mergeCell ref="B357:B371"/>
-    <mergeCell ref="B373:B384"/>
-    <mergeCell ref="B386:B397"/>
-    <mergeCell ref="B399:B408"/>
-    <mergeCell ref="B410:B423"/>
-    <mergeCell ref="B435:B446"/>
-    <mergeCell ref="B448:B459"/>
-    <mergeCell ref="B461:B472"/>
-    <mergeCell ref="B237:B249"/>
-    <mergeCell ref="B251:B266"/>
-    <mergeCell ref="B268:B277"/>
-    <mergeCell ref="B279:B288"/>
-    <mergeCell ref="B290:B301"/>
-    <mergeCell ref="B303:B313"/>
-    <mergeCell ref="B315:B329"/>
-    <mergeCell ref="B346:B355"/>
-    <mergeCell ref="B331:B344"/>
-    <mergeCell ref="B474:B487"/>
-    <mergeCell ref="B489:B498"/>
-    <mergeCell ref="B500:B515"/>
-    <mergeCell ref="B517:B530"/>
-    <mergeCell ref="B532:B543"/>
-    <mergeCell ref="B545:B559"/>
-    <mergeCell ref="B561:B576"/>
-    <mergeCell ref="B578:B588"/>
-    <mergeCell ref="B590:B602"/>
+    <mergeCell ref="C666:C671"/>
+    <mergeCell ref="C673:C679"/>
+    <mergeCell ref="C680:C686"/>
+    <mergeCell ref="D554:D556"/>
+    <mergeCell ref="B425:B433"/>
+    <mergeCell ref="C425:C428"/>
+    <mergeCell ref="C429:C433"/>
+    <mergeCell ref="C604:C611"/>
+    <mergeCell ref="C612:C619"/>
+    <mergeCell ref="C621:C626"/>
+    <mergeCell ref="C627:C632"/>
+    <mergeCell ref="C634:C640"/>
+    <mergeCell ref="C641:C648"/>
+    <mergeCell ref="C650:C654"/>
+    <mergeCell ref="C655:C659"/>
+    <mergeCell ref="C661:C665"/>
+    <mergeCell ref="C538:C543"/>
+    <mergeCell ref="C545:C551"/>
+    <mergeCell ref="C552:C559"/>
+    <mergeCell ref="C561:C568"/>
+    <mergeCell ref="C569:C576"/>
+    <mergeCell ref="C578:C582"/>
+    <mergeCell ref="C583:C588"/>
+    <mergeCell ref="C590:C595"/>
+    <mergeCell ref="C596:C602"/>
+    <mergeCell ref="C474:C480"/>
+    <mergeCell ref="C481:C487"/>
+    <mergeCell ref="C489:C493"/>
+    <mergeCell ref="C494:C498"/>
+    <mergeCell ref="C500:C507"/>
+    <mergeCell ref="C508:C515"/>
+    <mergeCell ref="C517:C523"/>
+    <mergeCell ref="C524:C530"/>
+    <mergeCell ref="C532:C537"/>
+    <mergeCell ref="C417:C423"/>
+    <mergeCell ref="C435:C440"/>
+    <mergeCell ref="C441:C446"/>
+    <mergeCell ref="C448:C453"/>
+    <mergeCell ref="C454:C459"/>
+    <mergeCell ref="C461:C466"/>
+    <mergeCell ref="C467:C472"/>
+    <mergeCell ref="C357:C363"/>
+    <mergeCell ref="C364:C371"/>
+    <mergeCell ref="C373:C378"/>
+    <mergeCell ref="C379:C384"/>
+    <mergeCell ref="C386:C391"/>
+    <mergeCell ref="C392:C397"/>
+    <mergeCell ref="C399:C403"/>
+    <mergeCell ref="C404:C408"/>
+    <mergeCell ref="C410:C416"/>
+    <mergeCell ref="C296:C301"/>
+    <mergeCell ref="C303:C307"/>
+    <mergeCell ref="C308:C313"/>
+    <mergeCell ref="C315:C321"/>
+    <mergeCell ref="C322:C329"/>
+    <mergeCell ref="C346:C350"/>
+    <mergeCell ref="C351:C355"/>
+    <mergeCell ref="C331:C337"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="C237:C242"/>
+    <mergeCell ref="C243:C249"/>
+    <mergeCell ref="C251:C258"/>
+    <mergeCell ref="C259:C266"/>
+    <mergeCell ref="C268:C272"/>
+    <mergeCell ref="C273:C277"/>
+    <mergeCell ref="C279:C283"/>
+    <mergeCell ref="C284:C288"/>
+    <mergeCell ref="C290:C295"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="C184:C188"/>
+    <mergeCell ref="C189:C193"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="C208:C214"/>
+    <mergeCell ref="C215:C222"/>
+    <mergeCell ref="C224:C229"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C112:C119"/>
+    <mergeCell ref="C120:C127"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="C135:C140"/>
+    <mergeCell ref="C142:C148"/>
+    <mergeCell ref="C149:C156"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="C171:C176"/>
     <mergeCell ref="B604:B619"/>
     <mergeCell ref="B621:B632"/>
     <mergeCell ref="B634:B648"/>
@@ -8676,96 +8720,54 @@
     <mergeCell ref="C91:C97"/>
     <mergeCell ref="C99:C104"/>
     <mergeCell ref="C105:C110"/>
-    <mergeCell ref="C112:C119"/>
-    <mergeCell ref="C120:C127"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="C135:C140"/>
-    <mergeCell ref="C142:C148"/>
-    <mergeCell ref="C149:C156"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="C184:C188"/>
-    <mergeCell ref="C189:C193"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="C208:C214"/>
-    <mergeCell ref="C215:C222"/>
-    <mergeCell ref="C224:C229"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C237:C242"/>
-    <mergeCell ref="C243:C249"/>
-    <mergeCell ref="C251:C258"/>
-    <mergeCell ref="C259:C266"/>
-    <mergeCell ref="C268:C272"/>
-    <mergeCell ref="C273:C277"/>
-    <mergeCell ref="C279:C283"/>
-    <mergeCell ref="C284:C288"/>
-    <mergeCell ref="C290:C295"/>
-    <mergeCell ref="C296:C301"/>
-    <mergeCell ref="C303:C307"/>
-    <mergeCell ref="C308:C313"/>
-    <mergeCell ref="C315:C321"/>
-    <mergeCell ref="C322:C329"/>
-    <mergeCell ref="C346:C350"/>
-    <mergeCell ref="C351:C355"/>
-    <mergeCell ref="C331:C337"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="C417:C423"/>
-    <mergeCell ref="C435:C440"/>
-    <mergeCell ref="C441:C446"/>
-    <mergeCell ref="C448:C453"/>
-    <mergeCell ref="C454:C459"/>
-    <mergeCell ref="C461:C466"/>
-    <mergeCell ref="C467:C472"/>
-    <mergeCell ref="C357:C363"/>
-    <mergeCell ref="C364:C371"/>
-    <mergeCell ref="C373:C378"/>
-    <mergeCell ref="C379:C384"/>
-    <mergeCell ref="C386:C391"/>
-    <mergeCell ref="C392:C397"/>
-    <mergeCell ref="C399:C403"/>
-    <mergeCell ref="C404:C408"/>
-    <mergeCell ref="C410:C416"/>
-    <mergeCell ref="C596:C602"/>
-    <mergeCell ref="C474:C480"/>
-    <mergeCell ref="C481:C487"/>
-    <mergeCell ref="C489:C493"/>
-    <mergeCell ref="C494:C498"/>
-    <mergeCell ref="C500:C507"/>
-    <mergeCell ref="C508:C515"/>
-    <mergeCell ref="C517:C523"/>
-    <mergeCell ref="C524:C530"/>
-    <mergeCell ref="C532:C537"/>
-    <mergeCell ref="C666:C671"/>
-    <mergeCell ref="C673:C679"/>
-    <mergeCell ref="C680:C686"/>
-    <mergeCell ref="D554:D556"/>
-    <mergeCell ref="B425:B433"/>
-    <mergeCell ref="C425:C428"/>
-    <mergeCell ref="C429:C433"/>
-    <mergeCell ref="C604:C611"/>
-    <mergeCell ref="C612:C619"/>
-    <mergeCell ref="C621:C626"/>
-    <mergeCell ref="C627:C632"/>
-    <mergeCell ref="C634:C640"/>
-    <mergeCell ref="C641:C648"/>
-    <mergeCell ref="C650:C654"/>
-    <mergeCell ref="C655:C659"/>
-    <mergeCell ref="C661:C665"/>
-    <mergeCell ref="C538:C543"/>
-    <mergeCell ref="C545:C551"/>
-    <mergeCell ref="C552:C559"/>
-    <mergeCell ref="C561:C568"/>
-    <mergeCell ref="C569:C576"/>
-    <mergeCell ref="C578:C582"/>
-    <mergeCell ref="C583:C588"/>
-    <mergeCell ref="C590:C595"/>
+    <mergeCell ref="B474:B487"/>
+    <mergeCell ref="B489:B498"/>
+    <mergeCell ref="B500:B515"/>
+    <mergeCell ref="B517:B530"/>
+    <mergeCell ref="B532:B543"/>
+    <mergeCell ref="B545:B559"/>
+    <mergeCell ref="B561:B576"/>
+    <mergeCell ref="B578:B588"/>
+    <mergeCell ref="B590:B602"/>
+    <mergeCell ref="B357:B371"/>
+    <mergeCell ref="B373:B384"/>
+    <mergeCell ref="B386:B397"/>
+    <mergeCell ref="B399:B408"/>
+    <mergeCell ref="B410:B423"/>
+    <mergeCell ref="B435:B446"/>
+    <mergeCell ref="B448:B459"/>
+    <mergeCell ref="B461:B472"/>
+    <mergeCell ref="B237:B249"/>
+    <mergeCell ref="B251:B266"/>
+    <mergeCell ref="B268:B277"/>
+    <mergeCell ref="B279:B288"/>
+    <mergeCell ref="B290:B301"/>
+    <mergeCell ref="B303:B313"/>
+    <mergeCell ref="B315:B329"/>
+    <mergeCell ref="B346:B355"/>
+    <mergeCell ref="B331:B344"/>
+    <mergeCell ref="B112:B127"/>
+    <mergeCell ref="B129:B140"/>
+    <mergeCell ref="B142:B156"/>
+    <mergeCell ref="B158:B169"/>
+    <mergeCell ref="B171:B182"/>
+    <mergeCell ref="B184:B193"/>
+    <mergeCell ref="B195:B206"/>
+    <mergeCell ref="B208:B222"/>
+    <mergeCell ref="B224:B235"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B24:B35"/>
+    <mergeCell ref="B37:B46"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="B84:B97"/>
+    <mergeCell ref="B99:B110"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>